--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>415700</v>
+        <v>412800</v>
       </c>
       <c r="E8" s="3">
-        <v>365300</v>
+        <v>362800</v>
       </c>
       <c r="F8" s="3">
-        <v>299000</v>
+        <v>296900</v>
       </c>
       <c r="G8" s="3">
-        <v>148100</v>
+        <v>147100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>174400</v>
+        <v>173200</v>
       </c>
       <c r="E9" s="3">
-        <v>215200</v>
+        <v>213700</v>
       </c>
       <c r="F9" s="3">
-        <v>193500</v>
+        <v>192200</v>
       </c>
       <c r="G9" s="3">
-        <v>131500</v>
+        <v>130600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>241300</v>
+        <v>239600</v>
       </c>
       <c r="E10" s="3">
-        <v>150100</v>
+        <v>149100</v>
       </c>
       <c r="F10" s="3">
-        <v>105500</v>
+        <v>104700</v>
       </c>
       <c r="G10" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -869,7 +869,7 @@
         <v>7000</v>
       </c>
       <c r="G14" s="3">
-        <v>-36800</v>
+        <v>-36600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -924,19 +924,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>221800</v>
+        <v>220300</v>
       </c>
       <c r="E17" s="3">
-        <v>267000</v>
+        <v>265200</v>
       </c>
       <c r="F17" s="3">
-        <v>241900</v>
+        <v>240200</v>
       </c>
       <c r="G17" s="3">
-        <v>120900</v>
+        <v>120100</v>
       </c>
       <c r="H17" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -951,19 +951,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>193900</v>
+        <v>192500</v>
       </c>
       <c r="E18" s="3">
-        <v>98300</v>
+        <v>97700</v>
       </c>
       <c r="F18" s="3">
-        <v>57100</v>
+        <v>56700</v>
       </c>
       <c r="G18" s="3">
-        <v>27100</v>
+        <v>27000</v>
       </c>
       <c r="H18" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-102100</v>
+        <v>-101400</v>
       </c>
       <c r="E20" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="F20" s="3">
-        <v>-34500</v>
+        <v>-34300</v>
       </c>
       <c r="G20" s="3">
-        <v>-24700</v>
+        <v>-24500</v>
       </c>
       <c r="H20" s="3">
         <v>2600</v>
@@ -1018,19 +1018,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>141600</v>
+        <v>141500</v>
       </c>
       <c r="E21" s="3">
-        <v>169300</v>
+        <v>169100</v>
       </c>
       <c r="F21" s="3">
-        <v>79900</v>
+        <v>80400</v>
       </c>
       <c r="G21" s="3">
-        <v>43900</v>
+        <v>44300</v>
       </c>
       <c r="H21" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E22" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="F22" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>78800</v>
+        <v>78200</v>
       </c>
       <c r="E23" s="3">
-        <v>96000</v>
+        <v>95300</v>
       </c>
       <c r="F23" s="3">
         <v>3400</v>
@@ -1102,13 +1102,13 @@
         <v>11400</v>
       </c>
       <c r="E24" s="3">
-        <v>-22600</v>
+        <v>-22500</v>
       </c>
       <c r="F24" s="3">
         <v>7200</v>
       </c>
       <c r="G24" s="3">
-        <v>-21000</v>
+        <v>-20800</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>67300</v>
+        <v>66900</v>
       </c>
       <c r="E26" s="3">
-        <v>118600</v>
+        <v>117800</v>
       </c>
       <c r="F26" s="3">
         <v>-3800</v>
       </c>
       <c r="G26" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="H26" s="3">
         <v>-4300</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>66200</v>
+        <v>65800</v>
       </c>
       <c r="E27" s="3">
-        <v>117800</v>
+        <v>117000</v>
       </c>
       <c r="F27" s="3">
         <v>-4000</v>
       </c>
       <c r="G27" s="3">
-        <v>29800</v>
+        <v>29600</v>
       </c>
       <c r="H27" s="3">
         <v>-3800</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>102100</v>
+        <v>101400</v>
       </c>
       <c r="E32" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="F32" s="3">
-        <v>34500</v>
+        <v>34300</v>
       </c>
       <c r="G32" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="H32" s="3">
         <v>-2600</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>66200</v>
+        <v>65800</v>
       </c>
       <c r="E33" s="3">
-        <v>117800</v>
+        <v>117000</v>
       </c>
       <c r="F33" s="3">
         <v>-4000</v>
       </c>
       <c r="G33" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="H33" s="3">
         <v>-3900</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>66200</v>
+        <v>65800</v>
       </c>
       <c r="E35" s="3">
-        <v>117800</v>
+        <v>117000</v>
       </c>
       <c r="F35" s="3">
         <v>-4000</v>
       </c>
       <c r="G35" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="H35" s="3">
         <v>-3900</v>
@@ -1481,19 +1481,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80200</v>
+        <v>79600</v>
       </c>
       <c r="E41" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="F41" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="G41" s="3">
-        <v>65500</v>
+        <v>65100</v>
       </c>
       <c r="H41" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44000</v>
+        <v>43700</v>
       </c>
       <c r="E43" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="F43" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="G43" s="3">
         <v>4300</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32700</v>
+        <v>32500</v>
       </c>
       <c r="E44" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="F44" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="G44" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H44" s="3">
         <v>6600</v>
@@ -1592,16 +1592,16 @@
         <v>6700</v>
       </c>
       <c r="E45" s="3">
-        <v>31000</v>
+        <v>30800</v>
       </c>
       <c r="F45" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G45" s="3">
-        <v>44800</v>
+        <v>44500</v>
       </c>
       <c r="H45" s="3">
-        <v>39000</v>
+        <v>38700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1616,19 +1616,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>163600</v>
+        <v>162500</v>
       </c>
       <c r="E46" s="3">
-        <v>96900</v>
+        <v>96300</v>
       </c>
       <c r="F46" s="3">
-        <v>65400</v>
+        <v>64900</v>
       </c>
       <c r="G46" s="3">
-        <v>125600</v>
+        <v>124700</v>
       </c>
       <c r="H46" s="3">
-        <v>69800</v>
+        <v>69300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1670,19 +1670,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>455000</v>
+        <v>451800</v>
       </c>
       <c r="E48" s="3">
-        <v>468700</v>
+        <v>465400</v>
       </c>
       <c r="F48" s="3">
-        <v>392900</v>
+        <v>390300</v>
       </c>
       <c r="G48" s="3">
-        <v>360000</v>
+        <v>357500</v>
       </c>
       <c r="H48" s="3">
-        <v>335400</v>
+        <v>333100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1709,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="E52" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="F52" s="3">
         <v>2300</v>
@@ -1832,19 +1832,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>637600</v>
+        <v>633200</v>
       </c>
       <c r="E54" s="3">
-        <v>593400</v>
+        <v>589400</v>
       </c>
       <c r="F54" s="3">
-        <v>462300</v>
+        <v>459100</v>
       </c>
       <c r="G54" s="3">
-        <v>489100</v>
+        <v>485800</v>
       </c>
       <c r="H54" s="3">
-        <v>409200</v>
+        <v>406400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1885,19 +1885,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="E57" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="F57" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="G57" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="H57" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1912,19 +1912,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="E58" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="F58" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="G58" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H58" s="3">
-        <v>138700</v>
+        <v>137700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -1939,19 +1939,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81200</v>
+        <v>80600</v>
       </c>
       <c r="E59" s="3">
-        <v>46800</v>
+        <v>46500</v>
       </c>
       <c r="F59" s="3">
-        <v>39300</v>
+        <v>39000</v>
       </c>
       <c r="G59" s="3">
-        <v>46700</v>
+        <v>46400</v>
       </c>
       <c r="H59" s="3">
-        <v>77400</v>
+        <v>76900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -1966,19 +1966,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>117600</v>
+        <v>116800</v>
       </c>
       <c r="E60" s="3">
-        <v>103200</v>
+        <v>102500</v>
       </c>
       <c r="F60" s="3">
-        <v>77300</v>
+        <v>76800</v>
       </c>
       <c r="G60" s="3">
-        <v>71000</v>
+        <v>70500</v>
       </c>
       <c r="H60" s="3">
-        <v>235700</v>
+        <v>234100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -1993,19 +1993,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200000</v>
+        <v>198600</v>
       </c>
       <c r="E61" s="3">
-        <v>180700</v>
+        <v>179400</v>
       </c>
       <c r="F61" s="3">
-        <v>181700</v>
+        <v>180400</v>
       </c>
       <c r="G61" s="3">
-        <v>171300</v>
+        <v>170100</v>
       </c>
       <c r="H61" s="3">
-        <v>69200</v>
+        <v>68800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>45400</v>
+        <v>45100</v>
       </c>
       <c r="E62" s="3">
-        <v>54200</v>
+        <v>53800</v>
       </c>
       <c r="F62" s="3">
-        <v>70200</v>
+        <v>69700</v>
       </c>
       <c r="G62" s="3">
-        <v>80400</v>
+        <v>79900</v>
       </c>
       <c r="H62" s="3">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2128,19 +2128,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>364800</v>
+        <v>362300</v>
       </c>
       <c r="E66" s="3">
-        <v>339200</v>
+        <v>336900</v>
       </c>
       <c r="F66" s="3">
-        <v>329500</v>
+        <v>327300</v>
       </c>
       <c r="G66" s="3">
-        <v>322400</v>
+        <v>320200</v>
       </c>
       <c r="H66" s="3">
-        <v>377400</v>
+        <v>374800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>111000</v>
+        <v>110200</v>
       </c>
       <c r="E72" s="3">
-        <v>99700</v>
+        <v>99000</v>
       </c>
       <c r="F72" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="G72" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="H72" s="3">
         <v>-3900</v>
@@ -2384,19 +2384,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>272800</v>
+        <v>270900</v>
       </c>
       <c r="E76" s="3">
-        <v>254200</v>
+        <v>252500</v>
       </c>
       <c r="F76" s="3">
-        <v>132800</v>
+        <v>131900</v>
       </c>
       <c r="G76" s="3">
-        <v>166700</v>
+        <v>165600</v>
       </c>
       <c r="H76" s="3">
-        <v>31800</v>
+        <v>31600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>66200</v>
+        <v>65800</v>
       </c>
       <c r="E81" s="3">
-        <v>117800</v>
+        <v>117000</v>
       </c>
       <c r="F81" s="3">
         <v>-4000</v>
       </c>
       <c r="G81" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="H81" s="3">
         <v>-3900</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50500</v>
+        <v>50100</v>
       </c>
       <c r="E83" s="3">
-        <v>59200</v>
+        <v>58800</v>
       </c>
       <c r="F83" s="3">
-        <v>58100</v>
+        <v>57700</v>
       </c>
       <c r="G83" s="3">
-        <v>42000</v>
+        <v>41700</v>
       </c>
       <c r="H83" s="3">
         <v>1000</v>
@@ -2672,19 +2672,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>208900</v>
+        <v>207400</v>
       </c>
       <c r="E89" s="3">
-        <v>164000</v>
+        <v>162800</v>
       </c>
       <c r="F89" s="3">
-        <v>106400</v>
+        <v>105700</v>
       </c>
       <c r="G89" s="3">
-        <v>27200</v>
+        <v>27100</v>
       </c>
       <c r="H89" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-151100</v>
+        <v>-150100</v>
       </c>
       <c r="E91" s="3">
-        <v>-136300</v>
+        <v>-135400</v>
       </c>
       <c r="F91" s="3">
-        <v>-129800</v>
+        <v>-128900</v>
       </c>
       <c r="G91" s="3">
-        <v>-74600</v>
+        <v>-74100</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-149500</v>
+        <v>-148500</v>
       </c>
       <c r="E94" s="3">
-        <v>-136900</v>
+        <v>-136000</v>
       </c>
       <c r="F94" s="3">
-        <v>-129500</v>
+        <v>-128600</v>
       </c>
       <c r="G94" s="3">
-        <v>-79900</v>
+        <v>-79400</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -2944,16 +2944,16 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>-23100</v>
+        <v>-23000</v>
       </c>
       <c r="F100" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="G100" s="3">
-        <v>92800</v>
+        <v>92100</v>
       </c>
       <c r="H100" s="3">
-        <v>34800</v>
+        <v>34600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -2974,10 +2974,10 @@
         <v>-700</v>
       </c>
       <c r="F101" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
@@ -2995,19 +2995,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>52600</v>
+        <v>52300</v>
       </c>
       <c r="E102" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F102" s="3">
-        <v>-41300</v>
+        <v>-41000</v>
       </c>
       <c r="G102" s="3">
-        <v>42000</v>
+        <v>41800</v>
       </c>
       <c r="H102" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>ERO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,142 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>412800</v>
+        <v>624300</v>
       </c>
       <c r="E8" s="3">
-        <v>362800</v>
+        <v>413000</v>
       </c>
       <c r="F8" s="3">
-        <v>296900</v>
+        <v>363000</v>
       </c>
       <c r="G8" s="3">
+        <v>297000</v>
+      </c>
+      <c r="H8" s="3">
         <v>147100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E9" s="3">
         <v>173200</v>
       </c>
-      <c r="E9" s="3">
-        <v>213700</v>
-      </c>
       <c r="F9" s="3">
-        <v>192200</v>
+        <v>213800</v>
       </c>
       <c r="G9" s="3">
+        <v>192300</v>
+      </c>
+      <c r="H9" s="3">
         <v>130600</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>239600</v>
+        <v>406300</v>
       </c>
       <c r="E10" s="3">
-        <v>149100</v>
+        <v>239700</v>
       </c>
       <c r="F10" s="3">
-        <v>104700</v>
+        <v>149200</v>
       </c>
       <c r="G10" s="3">
+        <v>104800</v>
+      </c>
+      <c r="H10" s="3">
         <v>16500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,53 +869,59 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-36600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>220300</v>
+        <v>277500</v>
       </c>
       <c r="E17" s="3">
-        <v>265200</v>
+        <v>220400</v>
       </c>
       <c r="F17" s="3">
-        <v>240200</v>
+        <v>265300</v>
       </c>
       <c r="G17" s="3">
+        <v>240300</v>
+      </c>
+      <c r="H17" s="3">
         <v>120100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>192500</v>
+        <v>346800</v>
       </c>
       <c r="E18" s="3">
+        <v>192600</v>
+      </c>
+      <c r="F18" s="3">
         <v>97700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>56700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,77 +1017,84 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-101400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>141500</v>
+        <v>369600</v>
       </c>
       <c r="E21" s="3">
-        <v>169100</v>
+        <v>141600</v>
       </c>
       <c r="F21" s="3">
-        <v>80400</v>
+        <v>169300</v>
       </c>
       <c r="G21" s="3">
-        <v>44300</v>
+        <v>80500</v>
       </c>
       <c r="H21" s="3">
+        <v>44400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
         <v>12900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,63 +1104,72 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>78200</v>
+        <v>301900</v>
       </c>
       <c r="E23" s="3">
-        <v>95300</v>
+        <v>78300</v>
       </c>
       <c r="F23" s="3">
+        <v>95400</v>
+      </c>
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E24" s="3">
         <v>11400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-22500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-20800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>258200</v>
+      </c>
+      <c r="E26" s="3">
         <v>66900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>117800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E27" s="3">
         <v>65800</v>
       </c>
-      <c r="E27" s="3">
-        <v>117000</v>
-      </c>
       <c r="F27" s="3">
+        <v>117100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
-        <v>29600</v>
-      </c>
       <c r="H27" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1242,21 +1302,24 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E32" s="3">
         <v>101400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E33" s="3">
         <v>65800</v>
       </c>
-      <c r="E33" s="3">
-        <v>117000</v>
-      </c>
       <c r="F33" s="3">
+        <v>117100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E35" s="3">
         <v>65800</v>
       </c>
-      <c r="E35" s="3">
-        <v>117000</v>
-      </c>
       <c r="F35" s="3">
+        <v>117100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,35 +1560,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79600</v>
+        <v>165800</v>
       </c>
       <c r="E41" s="3">
+        <v>79700</v>
+      </c>
+      <c r="F41" s="3">
         <v>27400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,171 +1617,192 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E43" s="3">
         <v>43700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E44" s="3">
         <v>32500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E46" s="3">
         <v>162500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>96300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>124700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>69300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>451800</v>
+        <v>608400</v>
       </c>
       <c r="E48" s="3">
-        <v>465400</v>
+        <v>452000</v>
       </c>
       <c r="F48" s="3">
-        <v>390300</v>
+        <v>465600</v>
       </c>
       <c r="G48" s="3">
-        <v>357500</v>
+        <v>390400</v>
       </c>
       <c r="H48" s="3">
-        <v>333100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>357600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>333200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1708,18 +1818,21 @@
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
         <v>22600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18200</v>
+        <v>4600</v>
       </c>
       <c r="E52" s="3">
-        <v>26100</v>
+        <v>18900</v>
       </c>
       <c r="F52" s="3">
-        <v>2300</v>
+        <v>27700</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>4000</v>
       </c>
       <c r="H52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>633200</v>
+        <v>879000</v>
       </c>
       <c r="E54" s="3">
-        <v>589400</v>
+        <v>633500</v>
       </c>
       <c r="F54" s="3">
-        <v>459100</v>
+        <v>589600</v>
       </c>
       <c r="G54" s="3">
-        <v>485800</v>
+        <v>459300</v>
       </c>
       <c r="H54" s="3">
-        <v>406400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>485900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>406500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,170 +2008,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18400</v>
+        <v>30600</v>
       </c>
       <c r="E57" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F57" s="3">
         <v>27800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E58" s="3">
         <v>17800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>28200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
-        <v>137700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>137800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80600</v>
+        <v>114200</v>
       </c>
       <c r="E59" s="3">
+        <v>80700</v>
+      </c>
+      <c r="F59" s="3">
         <v>46500</v>
       </c>
-      <c r="F59" s="3">
-        <v>39000</v>
-      </c>
       <c r="G59" s="3">
+        <v>39100</v>
+      </c>
+      <c r="H59" s="3">
         <v>46400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>116800</v>
+        <v>156300</v>
       </c>
       <c r="E60" s="3">
-        <v>102500</v>
+        <v>116900</v>
       </c>
       <c r="F60" s="3">
+        <v>102600</v>
+      </c>
+      <c r="G60" s="3">
         <v>76800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70500</v>
       </c>
-      <c r="H60" s="3">
-        <v>234100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>234200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>198600</v>
+        <v>73000</v>
       </c>
       <c r="E61" s="3">
-        <v>179400</v>
+        <v>198700</v>
       </c>
       <c r="F61" s="3">
-        <v>180400</v>
+        <v>179500</v>
       </c>
       <c r="G61" s="3">
-        <v>170100</v>
+        <v>180500</v>
       </c>
       <c r="H61" s="3">
+        <v>170200</v>
+      </c>
+      <c r="I61" s="3">
         <v>68800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E62" s="3">
         <v>45100</v>
       </c>
-      <c r="E62" s="3">
-        <v>53800</v>
-      </c>
       <c r="F62" s="3">
+        <v>53900</v>
+      </c>
+      <c r="G62" s="3">
         <v>69700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>79900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>72500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>362300</v>
+        <v>378100</v>
       </c>
       <c r="E66" s="3">
-        <v>336900</v>
+        <v>362400</v>
       </c>
       <c r="F66" s="3">
-        <v>327300</v>
+        <v>337000</v>
       </c>
       <c r="G66" s="3">
-        <v>320200</v>
+        <v>327400</v>
       </c>
       <c r="H66" s="3">
-        <v>374800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>320300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>375000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>110200</v>
+        <v>452200</v>
       </c>
       <c r="E72" s="3">
-        <v>99000</v>
+        <v>110300</v>
       </c>
       <c r="F72" s="3">
+        <v>99100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-18400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>270900</v>
+        <v>500900</v>
       </c>
       <c r="E76" s="3">
-        <v>252500</v>
+        <v>271000</v>
       </c>
       <c r="F76" s="3">
+        <v>252600</v>
+      </c>
+      <c r="G76" s="3">
         <v>131900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>165600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E81" s="3">
         <v>65800</v>
       </c>
-      <c r="E81" s="3">
-        <v>117000</v>
-      </c>
       <c r="F81" s="3">
+        <v>117100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E83" s="3">
         <v>50100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>57700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>207400</v>
+        <v>464600</v>
       </c>
       <c r="E89" s="3">
-        <v>162800</v>
+        <v>207500</v>
       </c>
       <c r="F89" s="3">
+        <v>162900</v>
+      </c>
+      <c r="G89" s="3">
         <v>105700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-231700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-150100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-135400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-128900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-74100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-228800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-148500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-136000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-128600</v>
-      </c>
       <c r="G94" s="3">
+        <v>-128700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-79400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9300</v>
       </c>
-      <c r="G100" s="3">
-        <v>92100</v>
-      </c>
       <c r="H100" s="3">
+        <v>92200</v>
+      </c>
+      <c r="I100" s="3">
         <v>34600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E102" s="3">
         <v>52300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>41800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>624300</v>
+        <v>639000</v>
       </c>
       <c r="E8" s="3">
-        <v>413000</v>
+        <v>422700</v>
       </c>
       <c r="F8" s="3">
-        <v>363000</v>
+        <v>371500</v>
       </c>
       <c r="G8" s="3">
-        <v>297000</v>
+        <v>304100</v>
       </c>
       <c r="H8" s="3">
-        <v>147100</v>
+        <v>150600</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>218000</v>
+        <v>223100</v>
       </c>
       <c r="E9" s="3">
-        <v>173200</v>
+        <v>177300</v>
       </c>
       <c r="F9" s="3">
-        <v>213800</v>
+        <v>218900</v>
       </c>
       <c r="G9" s="3">
-        <v>192300</v>
+        <v>196800</v>
       </c>
       <c r="H9" s="3">
-        <v>130600</v>
+        <v>133700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>406300</v>
+        <v>415900</v>
       </c>
       <c r="E10" s="3">
-        <v>239700</v>
+        <v>245400</v>
       </c>
       <c r="F10" s="3">
-        <v>149200</v>
+        <v>152700</v>
       </c>
       <c r="G10" s="3">
-        <v>104800</v>
+        <v>107300</v>
       </c>
       <c r="H10" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -888,10 +888,10 @@
         <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="H14" s="3">
-        <v>-36600</v>
+        <v>-37500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -950,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>277500</v>
+        <v>284000</v>
       </c>
       <c r="E17" s="3">
-        <v>220400</v>
+        <v>225600</v>
       </c>
       <c r="F17" s="3">
-        <v>265300</v>
+        <v>271500</v>
       </c>
       <c r="G17" s="3">
-        <v>240300</v>
+        <v>246000</v>
       </c>
       <c r="H17" s="3">
-        <v>120100</v>
+        <v>123000</v>
       </c>
       <c r="I17" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -980,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>346800</v>
+        <v>355000</v>
       </c>
       <c r="E18" s="3">
-        <v>192600</v>
+        <v>197200</v>
       </c>
       <c r="F18" s="3">
-        <v>97700</v>
+        <v>100000</v>
       </c>
       <c r="G18" s="3">
-        <v>56700</v>
+        <v>58100</v>
       </c>
       <c r="H18" s="3">
-        <v>27000</v>
+        <v>27600</v>
       </c>
       <c r="I18" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-37800</v>
+        <v>-38700</v>
       </c>
       <c r="E20" s="3">
-        <v>-101400</v>
+        <v>-103800</v>
       </c>
       <c r="F20" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="G20" s="3">
-        <v>-34300</v>
+        <v>-35100</v>
       </c>
       <c r="H20" s="3">
-        <v>-24500</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
         <v>2600</v>
@@ -1054,22 +1054,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>369600</v>
+        <v>377800</v>
       </c>
       <c r="E21" s="3">
-        <v>141600</v>
+        <v>144500</v>
       </c>
       <c r="F21" s="3">
-        <v>169300</v>
+        <v>172700</v>
       </c>
       <c r="G21" s="3">
-        <v>80500</v>
+        <v>81800</v>
       </c>
       <c r="H21" s="3">
-        <v>44400</v>
+        <v>45100</v>
       </c>
       <c r="I21" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1084,16 +1084,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="E22" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="F22" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="G22" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,22 +1114,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>301900</v>
+        <v>309000</v>
       </c>
       <c r="E23" s="3">
-        <v>78300</v>
+        <v>80100</v>
       </c>
       <c r="F23" s="3">
-        <v>95400</v>
+        <v>97600</v>
       </c>
       <c r="G23" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H23" s="3">
         <v>2500</v>
       </c>
       <c r="I23" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43700</v>
+        <v>44700</v>
       </c>
       <c r="E24" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="F24" s="3">
-        <v>-22500</v>
+        <v>-23000</v>
       </c>
       <c r="G24" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H24" s="3">
-        <v>-20800</v>
+        <v>-21300</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
@@ -1204,22 +1204,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>258200</v>
+        <v>264300</v>
       </c>
       <c r="E26" s="3">
-        <v>66900</v>
+        <v>68500</v>
       </c>
       <c r="F26" s="3">
-        <v>117800</v>
+        <v>120600</v>
       </c>
       <c r="G26" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H26" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="I26" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>256200</v>
+        <v>262300</v>
       </c>
       <c r="E27" s="3">
-        <v>65800</v>
+        <v>67300</v>
       </c>
       <c r="F27" s="3">
-        <v>117100</v>
+        <v>119900</v>
       </c>
       <c r="G27" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H27" s="3">
-        <v>29700</v>
+        <v>30400</v>
       </c>
       <c r="I27" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>37800</v>
+        <v>38700</v>
       </c>
       <c r="E32" s="3">
-        <v>101400</v>
+        <v>103800</v>
       </c>
       <c r="F32" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="G32" s="3">
-        <v>34300</v>
+        <v>35100</v>
       </c>
       <c r="H32" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
         <v>-2600</v>
@@ -1414,22 +1414,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>256200</v>
+        <v>262300</v>
       </c>
       <c r="E33" s="3">
-        <v>65800</v>
+        <v>67300</v>
       </c>
       <c r="F33" s="3">
-        <v>117100</v>
+        <v>119900</v>
       </c>
       <c r="G33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>28600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1474,22 +1474,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>256200</v>
+        <v>262300</v>
       </c>
       <c r="E35" s="3">
-        <v>65800</v>
+        <v>67300</v>
       </c>
       <c r="F35" s="3">
-        <v>117100</v>
+        <v>119900</v>
       </c>
       <c r="G35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>28600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1567,22 +1567,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>165800</v>
+        <v>169700</v>
       </c>
       <c r="E41" s="3">
-        <v>79700</v>
+        <v>81500</v>
       </c>
       <c r="F41" s="3">
-        <v>27400</v>
+        <v>28000</v>
       </c>
       <c r="G41" s="3">
-        <v>24100</v>
+        <v>24700</v>
       </c>
       <c r="H41" s="3">
-        <v>65100</v>
+        <v>66700</v>
       </c>
       <c r="I41" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1627,22 +1627,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>58400</v>
+        <v>59800</v>
       </c>
       <c r="E43" s="3">
-        <v>43700</v>
+        <v>44800</v>
       </c>
       <c r="F43" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="G43" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="H43" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I43" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1657,22 +1657,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33200</v>
+        <v>33900</v>
       </c>
       <c r="E44" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="F44" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="G44" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="H44" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="I44" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1687,22 +1687,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="E45" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="F45" s="3">
-        <v>30800</v>
+        <v>31600</v>
       </c>
       <c r="G45" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="H45" s="3">
-        <v>44500</v>
+        <v>45600</v>
       </c>
       <c r="I45" s="3">
-        <v>38700</v>
+        <v>39700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1717,22 +1717,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>265900</v>
+        <v>272200</v>
       </c>
       <c r="E46" s="3">
-        <v>162500</v>
+        <v>166400</v>
       </c>
       <c r="F46" s="3">
-        <v>96300</v>
+        <v>98600</v>
       </c>
       <c r="G46" s="3">
-        <v>64900</v>
+        <v>66500</v>
       </c>
       <c r="H46" s="3">
-        <v>124700</v>
+        <v>127700</v>
       </c>
       <c r="I46" s="3">
-        <v>69300</v>
+        <v>71000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1777,22 +1777,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>608400</v>
+        <v>622800</v>
       </c>
       <c r="E48" s="3">
-        <v>452000</v>
+        <v>462700</v>
       </c>
       <c r="F48" s="3">
-        <v>465600</v>
+        <v>476600</v>
       </c>
       <c r="G48" s="3">
-        <v>390400</v>
+        <v>399600</v>
       </c>
       <c r="H48" s="3">
-        <v>357600</v>
+        <v>366100</v>
       </c>
       <c r="I48" s="3">
-        <v>333200</v>
+        <v>341100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="3">
-        <v>22600</v>
+        <v>23200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1897,22 +1897,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E52" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="F52" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="G52" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H52" s="3">
         <v>3600</v>
       </c>
       <c r="I52" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1957,22 +1957,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>879000</v>
+        <v>899700</v>
       </c>
       <c r="E54" s="3">
-        <v>633500</v>
+        <v>648400</v>
       </c>
       <c r="F54" s="3">
-        <v>589600</v>
+        <v>603500</v>
       </c>
       <c r="G54" s="3">
-        <v>459300</v>
+        <v>470200</v>
       </c>
       <c r="H54" s="3">
-        <v>485900</v>
+        <v>497400</v>
       </c>
       <c r="I54" s="3">
-        <v>406500</v>
+        <v>416100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2015,22 +2015,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="E57" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="F57" s="3">
-        <v>27800</v>
+        <v>28500</v>
       </c>
       <c r="G57" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="H57" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="I57" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2045,22 +2045,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="E58" s="3">
-        <v>17800</v>
+        <v>18200</v>
       </c>
       <c r="F58" s="3">
-        <v>28200</v>
+        <v>28900</v>
       </c>
       <c r="G58" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="H58" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="I58" s="3">
-        <v>137800</v>
+        <v>141100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2075,22 +2075,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>114200</v>
+        <v>116900</v>
       </c>
       <c r="E59" s="3">
-        <v>80700</v>
+        <v>82600</v>
       </c>
       <c r="F59" s="3">
-        <v>46500</v>
+        <v>47600</v>
       </c>
       <c r="G59" s="3">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="H59" s="3">
-        <v>46400</v>
+        <v>47500</v>
       </c>
       <c r="I59" s="3">
-        <v>76900</v>
+        <v>78700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2105,22 +2105,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>156300</v>
+        <v>160000</v>
       </c>
       <c r="E60" s="3">
-        <v>116900</v>
+        <v>119600</v>
       </c>
       <c r="F60" s="3">
-        <v>102600</v>
+        <v>105000</v>
       </c>
       <c r="G60" s="3">
-        <v>76800</v>
+        <v>78600</v>
       </c>
       <c r="H60" s="3">
-        <v>70500</v>
+        <v>72200</v>
       </c>
       <c r="I60" s="3">
-        <v>234200</v>
+        <v>239700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73000</v>
+        <v>74700</v>
       </c>
       <c r="E61" s="3">
-        <v>198700</v>
+        <v>203400</v>
       </c>
       <c r="F61" s="3">
-        <v>179500</v>
+        <v>183800</v>
       </c>
       <c r="G61" s="3">
-        <v>180500</v>
+        <v>184700</v>
       </c>
       <c r="H61" s="3">
-        <v>170200</v>
+        <v>174200</v>
       </c>
       <c r="I61" s="3">
-        <v>68800</v>
+        <v>70400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>145700</v>
+        <v>149100</v>
       </c>
       <c r="E62" s="3">
-        <v>45100</v>
+        <v>46200</v>
       </c>
       <c r="F62" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="G62" s="3">
-        <v>69700</v>
+        <v>71400</v>
       </c>
       <c r="H62" s="3">
-        <v>79900</v>
+        <v>81800</v>
       </c>
       <c r="I62" s="3">
-        <v>72500</v>
+        <v>74200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2285,22 +2285,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>378100</v>
+        <v>387000</v>
       </c>
       <c r="E66" s="3">
-        <v>362400</v>
+        <v>371000</v>
       </c>
       <c r="F66" s="3">
-        <v>337000</v>
+        <v>344900</v>
       </c>
       <c r="G66" s="3">
-        <v>327400</v>
+        <v>335100</v>
       </c>
       <c r="H66" s="3">
-        <v>320300</v>
+        <v>327900</v>
       </c>
       <c r="I66" s="3">
-        <v>375000</v>
+        <v>383800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2449,22 +2449,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>452200</v>
+        <v>462900</v>
       </c>
       <c r="E72" s="3">
-        <v>110300</v>
+        <v>112900</v>
       </c>
       <c r="F72" s="3">
-        <v>99100</v>
+        <v>101400</v>
       </c>
       <c r="G72" s="3">
-        <v>-18400</v>
+        <v>-18800</v>
       </c>
       <c r="H72" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2569,22 +2569,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>500900</v>
+        <v>512700</v>
       </c>
       <c r="E76" s="3">
-        <v>271000</v>
+        <v>277400</v>
       </c>
       <c r="F76" s="3">
-        <v>252600</v>
+        <v>258600</v>
       </c>
       <c r="G76" s="3">
-        <v>131900</v>
+        <v>135000</v>
       </c>
       <c r="H76" s="3">
-        <v>165600</v>
+        <v>169600</v>
       </c>
       <c r="I76" s="3">
-        <v>31600</v>
+        <v>32300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2664,22 +2664,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>256200</v>
+        <v>262300</v>
       </c>
       <c r="E81" s="3">
-        <v>65800</v>
+        <v>67300</v>
       </c>
       <c r="F81" s="3">
-        <v>117100</v>
+        <v>119900</v>
       </c>
       <c r="G81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>28600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2708,22 +2708,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>60300</v>
+        <v>61700</v>
       </c>
       <c r="E83" s="3">
-        <v>50100</v>
+        <v>51300</v>
       </c>
       <c r="F83" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="G83" s="3">
-        <v>57700</v>
+        <v>59100</v>
       </c>
       <c r="H83" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="I83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2888,22 +2888,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>464600</v>
+        <v>475600</v>
       </c>
       <c r="E89" s="3">
-        <v>207500</v>
+        <v>212400</v>
       </c>
       <c r="F89" s="3">
-        <v>162900</v>
+        <v>166700</v>
       </c>
       <c r="G89" s="3">
-        <v>105700</v>
+        <v>108200</v>
       </c>
       <c r="H89" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="I89" s="3">
-        <v>-11100</v>
+        <v>-11400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-231700</v>
+        <v>-237200</v>
       </c>
       <c r="E91" s="3">
-        <v>-150100</v>
+        <v>-153700</v>
       </c>
       <c r="F91" s="3">
-        <v>-135400</v>
+        <v>-138600</v>
       </c>
       <c r="G91" s="3">
-        <v>-128900</v>
+        <v>-132000</v>
       </c>
       <c r="H91" s="3">
-        <v>-74100</v>
+        <v>-75900</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-228800</v>
+        <v>-234200</v>
       </c>
       <c r="E94" s="3">
-        <v>-148500</v>
+        <v>-152000</v>
       </c>
       <c r="F94" s="3">
-        <v>-136000</v>
+        <v>-139200</v>
       </c>
       <c r="G94" s="3">
-        <v>-128700</v>
+        <v>-131700</v>
       </c>
       <c r="H94" s="3">
-        <v>-79400</v>
+        <v>-81300</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3186,22 +3186,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-147100</v>
+        <v>-150600</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
-        <v>-23000</v>
+        <v>-23500</v>
       </c>
       <c r="G100" s="3">
-        <v>-9300</v>
+        <v>-9600</v>
       </c>
       <c r="H100" s="3">
-        <v>92200</v>
+        <v>94400</v>
       </c>
       <c r="I100" s="3">
-        <v>34600</v>
+        <v>35400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3219,16 +3219,16 @@
         <v>-2600</v>
       </c>
       <c r="E101" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="F101" s="3">
         <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="H101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
@@ -3246,22 +3246,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>86200</v>
+        <v>88200</v>
       </c>
       <c r="E102" s="3">
-        <v>52300</v>
+        <v>53500</v>
       </c>
       <c r="F102" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G102" s="3">
-        <v>-41000</v>
+        <v>-42000</v>
       </c>
       <c r="H102" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="I102" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>639000</v>
+        <v>633200</v>
       </c>
       <c r="E8" s="3">
-        <v>422700</v>
+        <v>418800</v>
       </c>
       <c r="F8" s="3">
-        <v>371500</v>
+        <v>368100</v>
       </c>
       <c r="G8" s="3">
-        <v>304100</v>
+        <v>301300</v>
       </c>
       <c r="H8" s="3">
-        <v>150600</v>
+        <v>149200</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>223100</v>
+        <v>221100</v>
       </c>
       <c r="E9" s="3">
-        <v>177300</v>
+        <v>175700</v>
       </c>
       <c r="F9" s="3">
-        <v>218900</v>
+        <v>216800</v>
       </c>
       <c r="G9" s="3">
-        <v>196800</v>
+        <v>195000</v>
       </c>
       <c r="H9" s="3">
-        <v>133700</v>
+        <v>132500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>415900</v>
+        <v>412100</v>
       </c>
       <c r="E10" s="3">
-        <v>245400</v>
+        <v>243100</v>
       </c>
       <c r="F10" s="3">
-        <v>152700</v>
+        <v>151300</v>
       </c>
       <c r="G10" s="3">
-        <v>107300</v>
+        <v>106300</v>
       </c>
       <c r="H10" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -891,7 +891,7 @@
         <v>7100</v>
       </c>
       <c r="H14" s="3">
-        <v>-37500</v>
+        <v>-37100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -950,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>284000</v>
+        <v>281400</v>
       </c>
       <c r="E17" s="3">
-        <v>225600</v>
+        <v>223500</v>
       </c>
       <c r="F17" s="3">
-        <v>271500</v>
+        <v>269000</v>
       </c>
       <c r="G17" s="3">
-        <v>246000</v>
+        <v>243700</v>
       </c>
       <c r="H17" s="3">
-        <v>123000</v>
+        <v>121800</v>
       </c>
       <c r="I17" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -980,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>355000</v>
+        <v>351700</v>
       </c>
       <c r="E18" s="3">
-        <v>197200</v>
+        <v>195300</v>
       </c>
       <c r="F18" s="3">
-        <v>100000</v>
+        <v>99100</v>
       </c>
       <c r="G18" s="3">
-        <v>58100</v>
+        <v>57500</v>
       </c>
       <c r="H18" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="I18" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38700</v>
+        <v>-38300</v>
       </c>
       <c r="E20" s="3">
-        <v>-103800</v>
+        <v>-102800</v>
       </c>
       <c r="F20" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="G20" s="3">
-        <v>-35100</v>
+        <v>-34800</v>
       </c>
       <c r="H20" s="3">
-        <v>-25100</v>
+        <v>-24800</v>
       </c>
       <c r="I20" s="3">
         <v>2600</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>377800</v>
+        <v>374700</v>
       </c>
       <c r="E21" s="3">
-        <v>144500</v>
+        <v>143500</v>
       </c>
       <c r="F21" s="3">
-        <v>172700</v>
+        <v>171600</v>
       </c>
       <c r="G21" s="3">
-        <v>81800</v>
+        <v>81500</v>
       </c>
       <c r="H21" s="3">
-        <v>45100</v>
+        <v>44900</v>
       </c>
       <c r="I21" s="3">
         <v>-3500</v>
@@ -1084,16 +1084,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="E22" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="F22" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="G22" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,22 +1114,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>309000</v>
+        <v>306200</v>
       </c>
       <c r="E23" s="3">
-        <v>80100</v>
+        <v>79400</v>
       </c>
       <c r="F23" s="3">
-        <v>97600</v>
+        <v>96700</v>
       </c>
       <c r="G23" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H23" s="3">
         <v>2500</v>
       </c>
       <c r="I23" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="E24" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="F24" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="G24" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H24" s="3">
-        <v>-21300</v>
+        <v>-21100</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>264300</v>
+        <v>261900</v>
       </c>
       <c r="E26" s="3">
-        <v>68500</v>
+        <v>67800</v>
       </c>
       <c r="F26" s="3">
-        <v>120600</v>
+        <v>119500</v>
       </c>
       <c r="G26" s="3">
         <v>-3900</v>
       </c>
       <c r="H26" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="I26" s="3">
         <v>-4400</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>262300</v>
+        <v>259800</v>
       </c>
       <c r="E27" s="3">
-        <v>67300</v>
+        <v>66700</v>
       </c>
       <c r="F27" s="3">
-        <v>119900</v>
+        <v>118700</v>
       </c>
       <c r="G27" s="3">
         <v>-4100</v>
       </c>
       <c r="H27" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="I27" s="3">
         <v>-3900</v>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38700</v>
+        <v>38300</v>
       </c>
       <c r="E32" s="3">
-        <v>103800</v>
+        <v>102800</v>
       </c>
       <c r="F32" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="G32" s="3">
-        <v>35100</v>
+        <v>34800</v>
       </c>
       <c r="H32" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="I32" s="3">
         <v>-2600</v>
@@ -1414,22 +1414,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>262300</v>
+        <v>259800</v>
       </c>
       <c r="E33" s="3">
-        <v>67300</v>
+        <v>66700</v>
       </c>
       <c r="F33" s="3">
-        <v>119900</v>
+        <v>118700</v>
       </c>
       <c r="G33" s="3">
         <v>-4100</v>
       </c>
       <c r="H33" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="I33" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1474,22 +1474,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>262300</v>
+        <v>259800</v>
       </c>
       <c r="E35" s="3">
-        <v>67300</v>
+        <v>66700</v>
       </c>
       <c r="F35" s="3">
-        <v>119900</v>
+        <v>118700</v>
       </c>
       <c r="G35" s="3">
         <v>-4100</v>
       </c>
       <c r="H35" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="I35" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1567,22 +1567,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>169700</v>
+        <v>168200</v>
       </c>
       <c r="E41" s="3">
-        <v>81500</v>
+        <v>80800</v>
       </c>
       <c r="F41" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="G41" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="H41" s="3">
-        <v>66700</v>
+        <v>66000</v>
       </c>
       <c r="I41" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59800</v>
+        <v>59200</v>
       </c>
       <c r="E43" s="3">
-        <v>44800</v>
+        <v>44300</v>
       </c>
       <c r="F43" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="G43" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="H43" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
@@ -1657,22 +1657,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="E44" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="F44" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="G44" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H44" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="I44" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1687,22 +1687,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E45" s="3">
         <v>6800</v>
       </c>
       <c r="F45" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="G45" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="H45" s="3">
-        <v>45600</v>
+        <v>45200</v>
       </c>
       <c r="I45" s="3">
-        <v>39700</v>
+        <v>39300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1717,22 +1717,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>272200</v>
+        <v>269700</v>
       </c>
       <c r="E46" s="3">
-        <v>166400</v>
+        <v>164800</v>
       </c>
       <c r="F46" s="3">
-        <v>98600</v>
+        <v>97700</v>
       </c>
       <c r="G46" s="3">
-        <v>66500</v>
+        <v>65900</v>
       </c>
       <c r="H46" s="3">
-        <v>127700</v>
+        <v>126500</v>
       </c>
       <c r="I46" s="3">
-        <v>71000</v>
+        <v>70300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1777,22 +1777,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>622800</v>
+        <v>617100</v>
       </c>
       <c r="E48" s="3">
-        <v>462700</v>
+        <v>458400</v>
       </c>
       <c r="F48" s="3">
-        <v>476600</v>
+        <v>472200</v>
       </c>
       <c r="G48" s="3">
-        <v>399600</v>
+        <v>395900</v>
       </c>
       <c r="H48" s="3">
-        <v>366100</v>
+        <v>362700</v>
       </c>
       <c r="I48" s="3">
-        <v>341100</v>
+        <v>338000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1900,19 +1900,19 @@
         <v>4700</v>
       </c>
       <c r="E52" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="F52" s="3">
-        <v>28300</v>
+        <v>28100</v>
       </c>
       <c r="G52" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H52" s="3">
         <v>3600</v>
       </c>
       <c r="I52" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1957,22 +1957,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>899700</v>
+        <v>891400</v>
       </c>
       <c r="E54" s="3">
-        <v>648400</v>
+        <v>642500</v>
       </c>
       <c r="F54" s="3">
-        <v>603500</v>
+        <v>598000</v>
       </c>
       <c r="G54" s="3">
-        <v>470200</v>
+        <v>465800</v>
       </c>
       <c r="H54" s="3">
-        <v>497400</v>
+        <v>492800</v>
       </c>
       <c r="I54" s="3">
-        <v>416100</v>
+        <v>412300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2015,22 +2015,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="E57" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="F57" s="3">
-        <v>28500</v>
+        <v>28200</v>
       </c>
       <c r="G57" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="H57" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="I57" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2045,22 +2045,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="E58" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="F58" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="G58" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="H58" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
-        <v>141100</v>
+        <v>139800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2075,22 +2075,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>116900</v>
+        <v>115800</v>
       </c>
       <c r="E59" s="3">
-        <v>82600</v>
+        <v>81800</v>
       </c>
       <c r="F59" s="3">
-        <v>47600</v>
+        <v>47200</v>
       </c>
       <c r="G59" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="H59" s="3">
-        <v>47500</v>
+        <v>47000</v>
       </c>
       <c r="I59" s="3">
-        <v>78700</v>
+        <v>78000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2105,22 +2105,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160000</v>
+        <v>158500</v>
       </c>
       <c r="E60" s="3">
-        <v>119600</v>
+        <v>118500</v>
       </c>
       <c r="F60" s="3">
-        <v>105000</v>
+        <v>104000</v>
       </c>
       <c r="G60" s="3">
-        <v>78600</v>
+        <v>77900</v>
       </c>
       <c r="H60" s="3">
-        <v>72200</v>
+        <v>71500</v>
       </c>
       <c r="I60" s="3">
-        <v>239700</v>
+        <v>237500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74700</v>
+        <v>74100</v>
       </c>
       <c r="E61" s="3">
-        <v>203400</v>
+        <v>201500</v>
       </c>
       <c r="F61" s="3">
-        <v>183800</v>
+        <v>182100</v>
       </c>
       <c r="G61" s="3">
-        <v>184700</v>
+        <v>183000</v>
       </c>
       <c r="H61" s="3">
-        <v>174200</v>
+        <v>172600</v>
       </c>
       <c r="I61" s="3">
-        <v>70400</v>
+        <v>69800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>149100</v>
+        <v>147700</v>
       </c>
       <c r="E62" s="3">
-        <v>46200</v>
+        <v>45700</v>
       </c>
       <c r="F62" s="3">
-        <v>55100</v>
+        <v>54600</v>
       </c>
       <c r="G62" s="3">
-        <v>71400</v>
+        <v>70700</v>
       </c>
       <c r="H62" s="3">
-        <v>81800</v>
+        <v>81000</v>
       </c>
       <c r="I62" s="3">
-        <v>74200</v>
+        <v>73600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2285,22 +2285,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>387000</v>
+        <v>383500</v>
       </c>
       <c r="E66" s="3">
-        <v>371000</v>
+        <v>367600</v>
       </c>
       <c r="F66" s="3">
-        <v>344900</v>
+        <v>341800</v>
       </c>
       <c r="G66" s="3">
-        <v>335100</v>
+        <v>332000</v>
       </c>
       <c r="H66" s="3">
-        <v>327900</v>
+        <v>324800</v>
       </c>
       <c r="I66" s="3">
-        <v>383800</v>
+        <v>380300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2449,22 +2449,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>462900</v>
+        <v>458700</v>
       </c>
       <c r="E72" s="3">
-        <v>112900</v>
+        <v>111900</v>
       </c>
       <c r="F72" s="3">
-        <v>101400</v>
+        <v>100500</v>
       </c>
       <c r="G72" s="3">
-        <v>-18800</v>
+        <v>-18600</v>
       </c>
       <c r="H72" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="I72" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2569,22 +2569,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>512700</v>
+        <v>508000</v>
       </c>
       <c r="E76" s="3">
-        <v>277400</v>
+        <v>274900</v>
       </c>
       <c r="F76" s="3">
-        <v>258600</v>
+        <v>256200</v>
       </c>
       <c r="G76" s="3">
-        <v>135000</v>
+        <v>133800</v>
       </c>
       <c r="H76" s="3">
-        <v>169600</v>
+        <v>168000</v>
       </c>
       <c r="I76" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2664,22 +2664,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>262300</v>
+        <v>259800</v>
       </c>
       <c r="E81" s="3">
-        <v>67300</v>
+        <v>66700</v>
       </c>
       <c r="F81" s="3">
-        <v>119900</v>
+        <v>118700</v>
       </c>
       <c r="G81" s="3">
         <v>-4100</v>
       </c>
       <c r="H81" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="I81" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61700</v>
+        <v>61100</v>
       </c>
       <c r="E83" s="3">
-        <v>51300</v>
+        <v>50900</v>
       </c>
       <c r="F83" s="3">
-        <v>60200</v>
+        <v>59700</v>
       </c>
       <c r="G83" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="H83" s="3">
-        <v>42700</v>
+        <v>42300</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
@@ -2888,22 +2888,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>475600</v>
+        <v>471200</v>
       </c>
       <c r="E89" s="3">
-        <v>212400</v>
+        <v>210500</v>
       </c>
       <c r="F89" s="3">
-        <v>166700</v>
+        <v>165200</v>
       </c>
       <c r="G89" s="3">
-        <v>108200</v>
+        <v>107200</v>
       </c>
       <c r="H89" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="I89" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-237200</v>
+        <v>-235000</v>
       </c>
       <c r="E91" s="3">
-        <v>-153700</v>
+        <v>-152300</v>
       </c>
       <c r="F91" s="3">
-        <v>-138600</v>
+        <v>-137300</v>
       </c>
       <c r="G91" s="3">
-        <v>-132000</v>
+        <v>-130800</v>
       </c>
       <c r="H91" s="3">
-        <v>-75900</v>
+        <v>-75200</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-234200</v>
+        <v>-232000</v>
       </c>
       <c r="E94" s="3">
-        <v>-152000</v>
+        <v>-150600</v>
       </c>
       <c r="F94" s="3">
-        <v>-139200</v>
+        <v>-138000</v>
       </c>
       <c r="G94" s="3">
-        <v>-131700</v>
+        <v>-130500</v>
       </c>
       <c r="H94" s="3">
-        <v>-81300</v>
+        <v>-80500</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3186,22 +3186,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-150600</v>
+        <v>-149200</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
-        <v>-23500</v>
+        <v>-23300</v>
       </c>
       <c r="G100" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="H100" s="3">
-        <v>94400</v>
+        <v>93500</v>
       </c>
       <c r="I100" s="3">
-        <v>35400</v>
+        <v>35100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3225,7 +3225,7 @@
         <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="H101" s="3">
         <v>2000</v>
@@ -3246,22 +3246,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>88200</v>
+        <v>87400</v>
       </c>
       <c r="E102" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="F102" s="3">
         <v>3300</v>
       </c>
       <c r="G102" s="3">
-        <v>-42000</v>
+        <v>-41600</v>
       </c>
       <c r="H102" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="I102" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>633200</v>
+        <v>652500</v>
       </c>
       <c r="E8" s="3">
-        <v>418800</v>
+        <v>431600</v>
       </c>
       <c r="F8" s="3">
-        <v>368100</v>
+        <v>379400</v>
       </c>
       <c r="G8" s="3">
-        <v>301300</v>
+        <v>310400</v>
       </c>
       <c r="H8" s="3">
-        <v>149200</v>
+        <v>153700</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>221100</v>
+        <v>227800</v>
       </c>
       <c r="E9" s="3">
-        <v>175700</v>
+        <v>181000</v>
       </c>
       <c r="F9" s="3">
-        <v>216800</v>
+        <v>223400</v>
       </c>
       <c r="G9" s="3">
-        <v>195000</v>
+        <v>200900</v>
       </c>
       <c r="H9" s="3">
-        <v>132500</v>
+        <v>136500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>412100</v>
+        <v>424700</v>
       </c>
       <c r="E10" s="3">
-        <v>243100</v>
+        <v>250600</v>
       </c>
       <c r="F10" s="3">
-        <v>151300</v>
+        <v>155900</v>
       </c>
       <c r="G10" s="3">
-        <v>106300</v>
+        <v>109500</v>
       </c>
       <c r="H10" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -885,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G14" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="H14" s="3">
-        <v>-37100</v>
+        <v>-38300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -950,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>281400</v>
+        <v>290000</v>
       </c>
       <c r="E17" s="3">
-        <v>223500</v>
+        <v>230300</v>
       </c>
       <c r="F17" s="3">
-        <v>269000</v>
+        <v>277200</v>
       </c>
       <c r="G17" s="3">
-        <v>243700</v>
+        <v>251200</v>
       </c>
       <c r="H17" s="3">
-        <v>121800</v>
+        <v>125600</v>
       </c>
       <c r="I17" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -980,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>351700</v>
+        <v>362500</v>
       </c>
       <c r="E18" s="3">
-        <v>195300</v>
+        <v>201300</v>
       </c>
       <c r="F18" s="3">
-        <v>99100</v>
+        <v>102100</v>
       </c>
       <c r="G18" s="3">
-        <v>57500</v>
+        <v>59300</v>
       </c>
       <c r="H18" s="3">
-        <v>27400</v>
+        <v>28200</v>
       </c>
       <c r="I18" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1024,22 +1024,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38300</v>
+        <v>-39500</v>
       </c>
       <c r="E20" s="3">
-        <v>-102800</v>
+        <v>-106000</v>
       </c>
       <c r="F20" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="G20" s="3">
-        <v>-34800</v>
+        <v>-35800</v>
       </c>
       <c r="H20" s="3">
-        <v>-24800</v>
+        <v>-25600</v>
       </c>
       <c r="I20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>374700</v>
+        <v>386900</v>
       </c>
       <c r="E21" s="3">
-        <v>143500</v>
+        <v>148500</v>
       </c>
       <c r="F21" s="3">
-        <v>171600</v>
+        <v>177600</v>
       </c>
       <c r="G21" s="3">
-        <v>81500</v>
+        <v>84700</v>
       </c>
       <c r="H21" s="3">
-        <v>44900</v>
+        <v>46900</v>
       </c>
       <c r="I21" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1084,16 +1084,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="E22" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="F22" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="G22" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,22 +1114,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>306200</v>
+        <v>315500</v>
       </c>
       <c r="E23" s="3">
-        <v>79400</v>
+        <v>81800</v>
       </c>
       <c r="F23" s="3">
-        <v>96700</v>
+        <v>99700</v>
       </c>
       <c r="G23" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H23" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I23" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="E24" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="F24" s="3">
-        <v>-22800</v>
+        <v>-23500</v>
       </c>
       <c r="G24" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="H24" s="3">
-        <v>-21100</v>
+        <v>-21800</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
@@ -1204,22 +1204,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>261900</v>
+        <v>269900</v>
       </c>
       <c r="E26" s="3">
-        <v>67800</v>
+        <v>69900</v>
       </c>
       <c r="F26" s="3">
-        <v>119500</v>
+        <v>123100</v>
       </c>
       <c r="G26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="H26" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="I26" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>259800</v>
+        <v>267800</v>
       </c>
       <c r="E27" s="3">
-        <v>66700</v>
+        <v>68800</v>
       </c>
       <c r="F27" s="3">
-        <v>118700</v>
+        <v>122400</v>
       </c>
       <c r="G27" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H27" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="I27" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
@@ -1384,22 +1384,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38300</v>
+        <v>39500</v>
       </c>
       <c r="E32" s="3">
-        <v>102800</v>
+        <v>106000</v>
       </c>
       <c r="F32" s="3">
-        <v>-12600</v>
+        <v>-13000</v>
       </c>
       <c r="G32" s="3">
-        <v>34800</v>
+        <v>35800</v>
       </c>
       <c r="H32" s="3">
-        <v>24800</v>
+        <v>25600</v>
       </c>
       <c r="I32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1414,22 +1414,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>259800</v>
+        <v>267800</v>
       </c>
       <c r="E33" s="3">
-        <v>66700</v>
+        <v>68800</v>
       </c>
       <c r="F33" s="3">
-        <v>118700</v>
+        <v>122400</v>
       </c>
       <c r="G33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>29900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>29000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1474,22 +1474,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>259800</v>
+        <v>267800</v>
       </c>
       <c r="E35" s="3">
-        <v>66700</v>
+        <v>68800</v>
       </c>
       <c r="F35" s="3">
-        <v>118700</v>
+        <v>122400</v>
       </c>
       <c r="G35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>29900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>29000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1567,22 +1567,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>168200</v>
+        <v>173300</v>
       </c>
       <c r="E41" s="3">
-        <v>80800</v>
+        <v>83200</v>
       </c>
       <c r="F41" s="3">
-        <v>27800</v>
+        <v>28600</v>
       </c>
       <c r="G41" s="3">
-        <v>24500</v>
+        <v>25200</v>
       </c>
       <c r="H41" s="3">
-        <v>66000</v>
+        <v>68100</v>
       </c>
       <c r="I41" s="3">
-        <v>23700</v>
+        <v>24400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59200</v>
+        <v>61000</v>
       </c>
       <c r="E43" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="F43" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="G43" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="H43" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
@@ -1657,22 +1657,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="E44" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="F44" s="3">
-        <v>25000</v>
+        <v>25800</v>
       </c>
       <c r="G44" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="H44" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="I44" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1687,22 +1687,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="E45" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F45" s="3">
-        <v>31300</v>
+        <v>32200</v>
       </c>
       <c r="G45" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="H45" s="3">
-        <v>45200</v>
+        <v>46600</v>
       </c>
       <c r="I45" s="3">
-        <v>39300</v>
+        <v>40500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1717,22 +1717,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>269700</v>
+        <v>277900</v>
       </c>
       <c r="E46" s="3">
-        <v>164800</v>
+        <v>169900</v>
       </c>
       <c r="F46" s="3">
-        <v>97700</v>
+        <v>100600</v>
       </c>
       <c r="G46" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="H46" s="3">
-        <v>126500</v>
+        <v>130400</v>
       </c>
       <c r="I46" s="3">
-        <v>70300</v>
+        <v>72500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1777,22 +1777,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>617100</v>
+        <v>635900</v>
       </c>
       <c r="E48" s="3">
-        <v>458400</v>
+        <v>472400</v>
       </c>
       <c r="F48" s="3">
-        <v>472200</v>
+        <v>486600</v>
       </c>
       <c r="G48" s="3">
-        <v>395900</v>
+        <v>408000</v>
       </c>
       <c r="H48" s="3">
-        <v>362700</v>
+        <v>373800</v>
       </c>
       <c r="I48" s="3">
-        <v>338000</v>
+        <v>348300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="3">
-        <v>23000</v>
+        <v>23700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1897,22 +1897,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E52" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="F52" s="3">
-        <v>28100</v>
+        <v>28900</v>
       </c>
       <c r="G52" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I52" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1957,22 +1957,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>891400</v>
+        <v>918600</v>
       </c>
       <c r="E54" s="3">
-        <v>642500</v>
+        <v>662000</v>
       </c>
       <c r="F54" s="3">
-        <v>598000</v>
+        <v>616200</v>
       </c>
       <c r="G54" s="3">
-        <v>465800</v>
+        <v>480000</v>
       </c>
       <c r="H54" s="3">
-        <v>492800</v>
+        <v>507900</v>
       </c>
       <c r="I54" s="3">
-        <v>412300</v>
+        <v>424900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2015,22 +2015,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="E57" s="3">
-        <v>18700</v>
+        <v>19300</v>
       </c>
       <c r="F57" s="3">
-        <v>28200</v>
+        <v>29100</v>
       </c>
       <c r="G57" s="3">
-        <v>24600</v>
+        <v>25300</v>
       </c>
       <c r="H57" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="I57" s="3">
-        <v>19700</v>
+        <v>20300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2045,22 +2045,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="E58" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="F58" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="G58" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="H58" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="I58" s="3">
-        <v>139800</v>
+        <v>144000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2075,22 +2075,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115800</v>
+        <v>119300</v>
       </c>
       <c r="E59" s="3">
-        <v>81800</v>
+        <v>84300</v>
       </c>
       <c r="F59" s="3">
-        <v>47200</v>
+        <v>48600</v>
       </c>
       <c r="G59" s="3">
-        <v>39600</v>
+        <v>40800</v>
       </c>
       <c r="H59" s="3">
-        <v>47000</v>
+        <v>48500</v>
       </c>
       <c r="I59" s="3">
-        <v>78000</v>
+        <v>80400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2105,22 +2105,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>158500</v>
+        <v>163400</v>
       </c>
       <c r="E60" s="3">
-        <v>118500</v>
+        <v>122200</v>
       </c>
       <c r="F60" s="3">
-        <v>104000</v>
+        <v>107200</v>
       </c>
       <c r="G60" s="3">
-        <v>77900</v>
+        <v>80300</v>
       </c>
       <c r="H60" s="3">
-        <v>71500</v>
+        <v>73700</v>
       </c>
       <c r="I60" s="3">
-        <v>237500</v>
+        <v>244700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74100</v>
+        <v>76300</v>
       </c>
       <c r="E61" s="3">
-        <v>201500</v>
+        <v>207600</v>
       </c>
       <c r="F61" s="3">
-        <v>182100</v>
+        <v>187600</v>
       </c>
       <c r="G61" s="3">
-        <v>183000</v>
+        <v>188600</v>
       </c>
       <c r="H61" s="3">
-        <v>172600</v>
+        <v>177900</v>
       </c>
       <c r="I61" s="3">
-        <v>69800</v>
+        <v>71900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>147700</v>
+        <v>152200</v>
       </c>
       <c r="E62" s="3">
-        <v>45700</v>
+        <v>47100</v>
       </c>
       <c r="F62" s="3">
-        <v>54600</v>
+        <v>56300</v>
       </c>
       <c r="G62" s="3">
-        <v>70700</v>
+        <v>72900</v>
       </c>
       <c r="H62" s="3">
-        <v>81000</v>
+        <v>83500</v>
       </c>
       <c r="I62" s="3">
-        <v>73600</v>
+        <v>75800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2285,22 +2285,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>383500</v>
+        <v>395200</v>
       </c>
       <c r="E66" s="3">
-        <v>367600</v>
+        <v>378800</v>
       </c>
       <c r="F66" s="3">
-        <v>341800</v>
+        <v>352200</v>
       </c>
       <c r="G66" s="3">
-        <v>332000</v>
+        <v>342200</v>
       </c>
       <c r="H66" s="3">
-        <v>324800</v>
+        <v>334800</v>
       </c>
       <c r="I66" s="3">
-        <v>380300</v>
+        <v>391900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2449,22 +2449,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>458700</v>
+        <v>472600</v>
       </c>
       <c r="E72" s="3">
-        <v>111900</v>
+        <v>115300</v>
       </c>
       <c r="F72" s="3">
-        <v>100500</v>
+        <v>103500</v>
       </c>
       <c r="G72" s="3">
-        <v>-18600</v>
+        <v>-19200</v>
       </c>
       <c r="H72" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="I72" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2569,22 +2569,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>508000</v>
+        <v>523500</v>
       </c>
       <c r="E76" s="3">
-        <v>274900</v>
+        <v>283300</v>
       </c>
       <c r="F76" s="3">
-        <v>256200</v>
+        <v>264000</v>
       </c>
       <c r="G76" s="3">
-        <v>133800</v>
+        <v>137900</v>
       </c>
       <c r="H76" s="3">
-        <v>168000</v>
+        <v>173100</v>
       </c>
       <c r="I76" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2664,22 +2664,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>259800</v>
+        <v>267800</v>
       </c>
       <c r="E81" s="3">
-        <v>66700</v>
+        <v>68800</v>
       </c>
       <c r="F81" s="3">
-        <v>118700</v>
+        <v>122400</v>
       </c>
       <c r="G81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>29900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>29000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61100</v>
+        <v>63000</v>
       </c>
       <c r="E83" s="3">
-        <v>50900</v>
+        <v>52400</v>
       </c>
       <c r="F83" s="3">
-        <v>59700</v>
+        <v>61500</v>
       </c>
       <c r="G83" s="3">
-        <v>58500</v>
+        <v>60300</v>
       </c>
       <c r="H83" s="3">
-        <v>42300</v>
+        <v>43600</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
@@ -2888,22 +2888,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>471200</v>
+        <v>485600</v>
       </c>
       <c r="E89" s="3">
-        <v>210500</v>
+        <v>216900</v>
       </c>
       <c r="F89" s="3">
-        <v>165200</v>
+        <v>170200</v>
       </c>
       <c r="G89" s="3">
-        <v>107200</v>
+        <v>110500</v>
       </c>
       <c r="H89" s="3">
-        <v>27400</v>
+        <v>28300</v>
       </c>
       <c r="I89" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-235000</v>
+        <v>-242200</v>
       </c>
       <c r="E91" s="3">
-        <v>-152300</v>
+        <v>-156900</v>
       </c>
       <c r="F91" s="3">
-        <v>-137300</v>
+        <v>-141500</v>
       </c>
       <c r="G91" s="3">
-        <v>-130800</v>
+        <v>-134700</v>
       </c>
       <c r="H91" s="3">
-        <v>-75200</v>
+        <v>-77500</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-232000</v>
+        <v>-239100</v>
       </c>
       <c r="E94" s="3">
-        <v>-150600</v>
+        <v>-155200</v>
       </c>
       <c r="F94" s="3">
-        <v>-138000</v>
+        <v>-142200</v>
       </c>
       <c r="G94" s="3">
-        <v>-130500</v>
+        <v>-134500</v>
       </c>
       <c r="H94" s="3">
-        <v>-80500</v>
+        <v>-83000</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3186,22 +3186,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-149200</v>
+        <v>-153700</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
-        <v>-23300</v>
+        <v>-24000</v>
       </c>
       <c r="G100" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="H100" s="3">
-        <v>93500</v>
+        <v>96300</v>
       </c>
       <c r="I100" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E101" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="F101" s="3">
         <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="H101" s="3">
         <v>2000</v>
@@ -3246,22 +3246,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>87400</v>
+        <v>90100</v>
       </c>
       <c r="E102" s="3">
-        <v>53000</v>
+        <v>54600</v>
       </c>
       <c r="F102" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G102" s="3">
-        <v>-41600</v>
+        <v>-42900</v>
       </c>
       <c r="H102" s="3">
-        <v>42400</v>
+        <v>43700</v>
       </c>
       <c r="I102" s="3">
-        <v>23700</v>
+        <v>24400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>ERO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,108 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>652500</v>
+        <v>589600</v>
       </c>
       <c r="E8" s="3">
-        <v>431600</v>
+        <v>677400</v>
       </c>
       <c r="F8" s="3">
-        <v>379400</v>
+        <v>448100</v>
       </c>
       <c r="G8" s="3">
-        <v>310400</v>
+        <v>393900</v>
       </c>
       <c r="H8" s="3">
-        <v>153700</v>
+        <v>322300</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>159600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>227800</v>
+        <v>330800</v>
       </c>
       <c r="E9" s="3">
-        <v>181000</v>
+        <v>236500</v>
       </c>
       <c r="F9" s="3">
-        <v>223400</v>
+        <v>188000</v>
       </c>
       <c r="G9" s="3">
-        <v>200900</v>
+        <v>232000</v>
       </c>
       <c r="H9" s="3">
-        <v>136500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>208600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>141700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,29 +774,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>424700</v>
+        <v>258800</v>
       </c>
       <c r="E10" s="3">
-        <v>250600</v>
+        <v>440900</v>
       </c>
       <c r="F10" s="3">
-        <v>155900</v>
+        <v>260100</v>
       </c>
       <c r="G10" s="3">
-        <v>109500</v>
+        <v>161900</v>
       </c>
       <c r="H10" s="3">
-        <v>17200</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>113700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>17900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,29 +888,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>7300</v>
+        <v>2500</v>
       </c>
       <c r="H14" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-39700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -912,29 +934,32 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>290000</v>
+        <v>410100</v>
       </c>
       <c r="E17" s="3">
-        <v>230300</v>
+        <v>301100</v>
       </c>
       <c r="F17" s="3">
-        <v>277200</v>
+        <v>239100</v>
       </c>
       <c r="G17" s="3">
-        <v>251200</v>
+        <v>287800</v>
       </c>
       <c r="H17" s="3">
-        <v>125600</v>
+        <v>260700</v>
       </c>
       <c r="I17" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>130400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>362500</v>
+        <v>179500</v>
       </c>
       <c r="E18" s="3">
-        <v>201300</v>
+        <v>376300</v>
       </c>
       <c r="F18" s="3">
-        <v>102100</v>
+        <v>209000</v>
       </c>
       <c r="G18" s="3">
-        <v>59300</v>
+        <v>106000</v>
       </c>
       <c r="H18" s="3">
-        <v>28200</v>
+        <v>61600</v>
       </c>
       <c r="I18" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>29300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-7600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,85 +1050,92 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39500</v>
+        <v>24500</v>
       </c>
       <c r="E20" s="3">
-        <v>-106000</v>
+        <v>-41000</v>
       </c>
       <c r="F20" s="3">
-        <v>13000</v>
+        <v>-110000</v>
       </c>
       <c r="G20" s="3">
-        <v>-35800</v>
+        <v>13500</v>
       </c>
       <c r="H20" s="3">
-        <v>-25600</v>
+        <v>-37200</v>
       </c>
       <c r="I20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-26600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2800</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>386900</v>
+        <v>285400</v>
       </c>
       <c r="E21" s="3">
-        <v>148500</v>
+        <v>400600</v>
       </c>
       <c r="F21" s="3">
-        <v>177600</v>
+        <v>153300</v>
       </c>
       <c r="G21" s="3">
-        <v>84700</v>
+        <v>183200</v>
       </c>
       <c r="H21" s="3">
-        <v>46900</v>
+        <v>86900</v>
       </c>
       <c r="I21" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>47900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7400</v>
+        <v>29200</v>
       </c>
       <c r="E22" s="3">
-        <v>13500</v>
+        <v>7700</v>
       </c>
       <c r="F22" s="3">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="G22" s="3">
-        <v>19900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>16000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>20700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1107,69 +1146,78 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>315500</v>
+        <v>174700</v>
       </c>
       <c r="E23" s="3">
-        <v>81800</v>
+        <v>327600</v>
       </c>
       <c r="F23" s="3">
-        <v>99700</v>
+        <v>84900</v>
       </c>
       <c r="G23" s="3">
-        <v>3500</v>
+        <v>103500</v>
       </c>
       <c r="H23" s="3">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="I23" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45700</v>
+        <v>32200</v>
       </c>
       <c r="E24" s="3">
-        <v>11900</v>
+        <v>47400</v>
       </c>
       <c r="F24" s="3">
-        <v>-23500</v>
+        <v>12300</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>-24400</v>
       </c>
       <c r="H24" s="3">
-        <v>-21800</v>
+        <v>7800</v>
       </c>
       <c r="I24" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>269900</v>
+        <v>142500</v>
       </c>
       <c r="E26" s="3">
-        <v>69900</v>
+        <v>280200</v>
       </c>
       <c r="F26" s="3">
-        <v>123100</v>
+        <v>72600</v>
       </c>
       <c r="G26" s="3">
-        <v>-4000</v>
+        <v>127800</v>
       </c>
       <c r="H26" s="3">
-        <v>24400</v>
+        <v>-4100</v>
       </c>
       <c r="I26" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>25300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-4700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>267800</v>
+        <v>140800</v>
       </c>
       <c r="E27" s="3">
-        <v>68800</v>
+        <v>278000</v>
       </c>
       <c r="F27" s="3">
-        <v>122400</v>
+        <v>71400</v>
       </c>
       <c r="G27" s="3">
-        <v>-4200</v>
+        <v>127000</v>
       </c>
       <c r="H27" s="3">
-        <v>31000</v>
+        <v>-4400</v>
       </c>
       <c r="I27" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>32200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1305,21 +1365,24 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39500</v>
+        <v>-24500</v>
       </c>
       <c r="E32" s="3">
-        <v>106000</v>
+        <v>41000</v>
       </c>
       <c r="F32" s="3">
-        <v>-13000</v>
+        <v>110000</v>
       </c>
       <c r="G32" s="3">
-        <v>35800</v>
+        <v>-13500</v>
       </c>
       <c r="H32" s="3">
-        <v>25600</v>
+        <v>37200</v>
       </c>
       <c r="I32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>26600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2800</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>267800</v>
+        <v>140800</v>
       </c>
       <c r="E33" s="3">
-        <v>68800</v>
+        <v>278000</v>
       </c>
       <c r="F33" s="3">
-        <v>122400</v>
+        <v>71400</v>
       </c>
       <c r="G33" s="3">
+        <v>127000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>267800</v>
+        <v>140800</v>
       </c>
       <c r="E35" s="3">
-        <v>68800</v>
+        <v>278000</v>
       </c>
       <c r="F35" s="3">
-        <v>122400</v>
+        <v>71400</v>
       </c>
       <c r="G35" s="3">
+        <v>127000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,188 +1646,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>173300</v>
+        <v>245700</v>
       </c>
       <c r="E41" s="3">
-        <v>83200</v>
+        <v>179900</v>
       </c>
       <c r="F41" s="3">
-        <v>28600</v>
+        <v>86400</v>
       </c>
       <c r="G41" s="3">
-        <v>25200</v>
+        <v>29700</v>
       </c>
       <c r="H41" s="3">
-        <v>68100</v>
+        <v>26200</v>
       </c>
       <c r="I41" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>70700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>25300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>193200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61000</v>
+        <v>45300</v>
       </c>
       <c r="E43" s="3">
-        <v>45700</v>
+        <v>63300</v>
       </c>
       <c r="F43" s="3">
-        <v>14000</v>
+        <v>47400</v>
       </c>
       <c r="G43" s="3">
-        <v>11400</v>
+        <v>14500</v>
       </c>
       <c r="H43" s="3">
-        <v>4500</v>
+        <v>11800</v>
       </c>
       <c r="I43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34700</v>
+        <v>42800</v>
       </c>
       <c r="E44" s="3">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="F44" s="3">
-        <v>25800</v>
+        <v>35300</v>
       </c>
       <c r="G44" s="3">
-        <v>19500</v>
+        <v>26800</v>
       </c>
       <c r="H44" s="3">
-        <v>11300</v>
+        <v>20200</v>
       </c>
       <c r="I44" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9000</v>
+        <v>15600</v>
       </c>
       <c r="E45" s="3">
-        <v>7000</v>
+        <v>9300</v>
       </c>
       <c r="F45" s="3">
-        <v>32200</v>
+        <v>7200</v>
       </c>
       <c r="G45" s="3">
-        <v>11700</v>
+        <v>33500</v>
       </c>
       <c r="H45" s="3">
-        <v>46600</v>
+        <v>12200</v>
       </c>
       <c r="I45" s="3">
-        <v>40500</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>48300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>42000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>277900</v>
+        <v>542600</v>
       </c>
       <c r="E46" s="3">
-        <v>169900</v>
+        <v>288600</v>
       </c>
       <c r="F46" s="3">
-        <v>100600</v>
+        <v>176400</v>
       </c>
       <c r="G46" s="3">
-        <v>67900</v>
+        <v>104500</v>
       </c>
       <c r="H46" s="3">
-        <v>130400</v>
+        <v>70500</v>
       </c>
       <c r="I46" s="3">
-        <v>72500</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>135400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>75200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1767,42 +1871,48 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>635900</v>
+        <v>1066000</v>
       </c>
       <c r="E48" s="3">
-        <v>472400</v>
+        <v>660200</v>
       </c>
       <c r="F48" s="3">
-        <v>486600</v>
+        <v>490500</v>
       </c>
       <c r="G48" s="3">
-        <v>408000</v>
+        <v>505200</v>
       </c>
       <c r="H48" s="3">
-        <v>373800</v>
+        <v>423600</v>
       </c>
       <c r="I48" s="3">
-        <v>348300</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>388100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>361600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1821,18 +1931,21 @@
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="3">
-        <v>23700</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3">
+        <v>24600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4800</v>
+        <v>34100</v>
       </c>
       <c r="E52" s="3">
-        <v>19800</v>
+        <v>5000</v>
       </c>
       <c r="F52" s="3">
-        <v>28900</v>
+        <v>20500</v>
       </c>
       <c r="G52" s="3">
-        <v>4200</v>
+        <v>30000</v>
       </c>
       <c r="H52" s="3">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="I52" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>918600</v>
+        <v>1642800</v>
       </c>
       <c r="E54" s="3">
-        <v>662000</v>
+        <v>953700</v>
       </c>
       <c r="F54" s="3">
-        <v>616200</v>
+        <v>687300</v>
       </c>
       <c r="G54" s="3">
-        <v>480000</v>
+        <v>639700</v>
       </c>
       <c r="H54" s="3">
-        <v>507900</v>
+        <v>498400</v>
       </c>
       <c r="I54" s="3">
-        <v>424900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>527300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>441100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32000</v>
+        <v>59400</v>
       </c>
       <c r="E57" s="3">
-        <v>19300</v>
+        <v>33200</v>
       </c>
       <c r="F57" s="3">
-        <v>29100</v>
+        <v>20000</v>
       </c>
       <c r="G57" s="3">
-        <v>25300</v>
+        <v>30200</v>
       </c>
       <c r="H57" s="3">
-        <v>17800</v>
+        <v>26300</v>
       </c>
       <c r="I57" s="3">
-        <v>20300</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>18400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>21100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12100</v>
+        <v>30300</v>
       </c>
       <c r="E58" s="3">
-        <v>18600</v>
+        <v>12500</v>
       </c>
       <c r="F58" s="3">
-        <v>29500</v>
+        <v>19300</v>
       </c>
       <c r="G58" s="3">
-        <v>14100</v>
+        <v>30600</v>
       </c>
       <c r="H58" s="3">
-        <v>7500</v>
+        <v>14700</v>
       </c>
       <c r="I58" s="3">
-        <v>144000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>149500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119300</v>
+        <v>88900</v>
       </c>
       <c r="E59" s="3">
-        <v>84300</v>
+        <v>123900</v>
       </c>
       <c r="F59" s="3">
-        <v>48600</v>
+        <v>87500</v>
       </c>
       <c r="G59" s="3">
-        <v>40800</v>
+        <v>50500</v>
       </c>
       <c r="H59" s="3">
-        <v>48500</v>
+        <v>42400</v>
       </c>
       <c r="I59" s="3">
-        <v>80400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>50300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>83400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>163400</v>
+        <v>178500</v>
       </c>
       <c r="E60" s="3">
-        <v>122200</v>
+        <v>169600</v>
       </c>
       <c r="F60" s="3">
-        <v>107200</v>
+        <v>126800</v>
       </c>
       <c r="G60" s="3">
-        <v>80300</v>
+        <v>111300</v>
       </c>
       <c r="H60" s="3">
-        <v>73700</v>
+        <v>83300</v>
       </c>
       <c r="I60" s="3">
-        <v>244700</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>76500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>254100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76300</v>
+        <v>562900</v>
       </c>
       <c r="E61" s="3">
-        <v>207600</v>
+        <v>79200</v>
       </c>
       <c r="F61" s="3">
-        <v>187600</v>
+        <v>215600</v>
       </c>
       <c r="G61" s="3">
-        <v>188600</v>
+        <v>194800</v>
       </c>
       <c r="H61" s="3">
-        <v>177900</v>
+        <v>195800</v>
       </c>
       <c r="I61" s="3">
-        <v>71900</v>
+        <v>184700</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>74600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>152200</v>
+        <v>151700</v>
       </c>
       <c r="E62" s="3">
-        <v>47100</v>
+        <v>158100</v>
       </c>
       <c r="F62" s="3">
-        <v>56300</v>
+        <v>48900</v>
       </c>
       <c r="G62" s="3">
-        <v>72900</v>
+        <v>58400</v>
       </c>
       <c r="H62" s="3">
-        <v>83500</v>
+        <v>75700</v>
       </c>
       <c r="I62" s="3">
-        <v>75800</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>86700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>78700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>395200</v>
+        <v>898000</v>
       </c>
       <c r="E66" s="3">
-        <v>378800</v>
+        <v>410300</v>
       </c>
       <c r="F66" s="3">
-        <v>352200</v>
+        <v>393200</v>
       </c>
       <c r="G66" s="3">
-        <v>342200</v>
+        <v>365700</v>
       </c>
       <c r="H66" s="3">
-        <v>334800</v>
+        <v>355200</v>
       </c>
       <c r="I66" s="3">
-        <v>391900</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>347500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>406900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>472600</v>
+        <v>631500</v>
       </c>
       <c r="E72" s="3">
-        <v>115300</v>
+        <v>490700</v>
       </c>
       <c r="F72" s="3">
-        <v>103500</v>
+        <v>119700</v>
       </c>
       <c r="G72" s="3">
-        <v>-19200</v>
+        <v>107500</v>
       </c>
       <c r="H72" s="3">
-        <v>18500</v>
+        <v>-19900</v>
       </c>
       <c r="I72" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-4200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>523500</v>
+        <v>744700</v>
       </c>
       <c r="E76" s="3">
-        <v>283300</v>
+        <v>543500</v>
       </c>
       <c r="F76" s="3">
-        <v>264000</v>
+        <v>294100</v>
       </c>
       <c r="G76" s="3">
-        <v>137900</v>
+        <v>274100</v>
       </c>
       <c r="H76" s="3">
-        <v>173100</v>
+        <v>143100</v>
       </c>
       <c r="I76" s="3">
-        <v>33000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>179700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>34300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>267800</v>
+        <v>140800</v>
       </c>
       <c r="E81" s="3">
-        <v>68800</v>
+        <v>278000</v>
       </c>
       <c r="F81" s="3">
-        <v>122400</v>
+        <v>71400</v>
       </c>
       <c r="G81" s="3">
+        <v>127000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63000</v>
+        <v>81500</v>
       </c>
       <c r="E83" s="3">
-        <v>52400</v>
+        <v>65400</v>
       </c>
       <c r="F83" s="3">
-        <v>61500</v>
+        <v>54400</v>
       </c>
       <c r="G83" s="3">
-        <v>60300</v>
+        <v>63800</v>
       </c>
       <c r="H83" s="3">
-        <v>43600</v>
+        <v>62600</v>
       </c>
       <c r="I83" s="3">
+        <v>45300</v>
+      </c>
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>485600</v>
+        <v>198300</v>
       </c>
       <c r="E89" s="3">
-        <v>216900</v>
+        <v>504100</v>
       </c>
       <c r="F89" s="3">
-        <v>170200</v>
+        <v>225200</v>
       </c>
       <c r="G89" s="3">
-        <v>110500</v>
+        <v>176800</v>
       </c>
       <c r="H89" s="3">
-        <v>28300</v>
+        <v>114700</v>
       </c>
       <c r="I89" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>29400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-12100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-242200</v>
+        <v>-409000</v>
       </c>
       <c r="E91" s="3">
-        <v>-156900</v>
+        <v>-251400</v>
       </c>
       <c r="F91" s="3">
-        <v>-141500</v>
+        <v>-162900</v>
       </c>
       <c r="G91" s="3">
-        <v>-134700</v>
+        <v>-146900</v>
       </c>
       <c r="H91" s="3">
-        <v>-77500</v>
+        <v>-139900</v>
       </c>
       <c r="I91" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-239100</v>
+        <v>-588800</v>
       </c>
       <c r="E94" s="3">
-        <v>-155200</v>
+        <v>-248200</v>
       </c>
       <c r="F94" s="3">
-        <v>-142200</v>
+        <v>-161200</v>
       </c>
       <c r="G94" s="3">
-        <v>-134500</v>
+        <v>-147600</v>
       </c>
       <c r="H94" s="3">
-        <v>-83000</v>
+        <v>-139600</v>
       </c>
       <c r="I94" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-153700</v>
+        <v>452600</v>
       </c>
       <c r="E100" s="3">
+        <v>-159600</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>-24000</v>
-      </c>
       <c r="G100" s="3">
-        <v>-9800</v>
+        <v>-24900</v>
       </c>
       <c r="H100" s="3">
-        <v>96300</v>
+        <v>-10100</v>
       </c>
       <c r="I100" s="3">
-        <v>36200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>100000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>37600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2700</v>
+        <v>3700</v>
       </c>
       <c r="E101" s="3">
-        <v>-7400</v>
+        <v>-2800</v>
       </c>
       <c r="F101" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H101" s="3">
-        <v>2000</v>
+        <v>-9500</v>
       </c>
       <c r="I101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>90100</v>
+        <v>65800</v>
       </c>
       <c r="E102" s="3">
-        <v>54600</v>
+        <v>93500</v>
       </c>
       <c r="F102" s="3">
-        <v>3400</v>
+        <v>56700</v>
       </c>
       <c r="G102" s="3">
-        <v>-42900</v>
+        <v>3500</v>
       </c>
       <c r="H102" s="3">
-        <v>43700</v>
+        <v>-44500</v>
       </c>
       <c r="I102" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>45300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>25300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>589600</v>
+        <v>575600</v>
       </c>
       <c r="E8" s="3">
-        <v>677400</v>
+        <v>661400</v>
       </c>
       <c r="F8" s="3">
-        <v>448100</v>
+        <v>437500</v>
       </c>
       <c r="G8" s="3">
-        <v>393900</v>
+        <v>384500</v>
       </c>
       <c r="H8" s="3">
-        <v>322300</v>
+        <v>314700</v>
       </c>
       <c r="I8" s="3">
-        <v>159600</v>
+        <v>155900</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>330800</v>
+        <v>322900</v>
       </c>
       <c r="E9" s="3">
-        <v>236500</v>
+        <v>230900</v>
       </c>
       <c r="F9" s="3">
-        <v>188000</v>
+        <v>183500</v>
       </c>
       <c r="G9" s="3">
-        <v>232000</v>
+        <v>226500</v>
       </c>
       <c r="H9" s="3">
-        <v>208600</v>
+        <v>203700</v>
       </c>
       <c r="I9" s="3">
-        <v>141700</v>
+        <v>138400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>258800</v>
+        <v>252700</v>
       </c>
       <c r="E10" s="3">
-        <v>440900</v>
+        <v>430500</v>
       </c>
       <c r="F10" s="3">
-        <v>260100</v>
+        <v>254000</v>
       </c>
       <c r="G10" s="3">
-        <v>161900</v>
+        <v>158000</v>
       </c>
       <c r="H10" s="3">
-        <v>113700</v>
+        <v>111000</v>
       </c>
       <c r="I10" s="3">
-        <v>17900</v>
+        <v>17500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H14" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="I14" s="3">
-        <v>-39700</v>
+        <v>-38800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>410100</v>
+        <v>400400</v>
       </c>
       <c r="E17" s="3">
-        <v>301100</v>
+        <v>294000</v>
       </c>
       <c r="F17" s="3">
-        <v>239100</v>
+        <v>233500</v>
       </c>
       <c r="G17" s="3">
-        <v>287800</v>
+        <v>281000</v>
       </c>
       <c r="H17" s="3">
-        <v>260700</v>
+        <v>254600</v>
       </c>
       <c r="I17" s="3">
-        <v>130400</v>
+        <v>127300</v>
       </c>
       <c r="J17" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>179500</v>
+        <v>175200</v>
       </c>
       <c r="E18" s="3">
-        <v>376300</v>
+        <v>367400</v>
       </c>
       <c r="F18" s="3">
-        <v>209000</v>
+        <v>204000</v>
       </c>
       <c r="G18" s="3">
-        <v>106000</v>
+        <v>103500</v>
       </c>
       <c r="H18" s="3">
-        <v>61600</v>
+        <v>60100</v>
       </c>
       <c r="I18" s="3">
-        <v>29300</v>
+        <v>28600</v>
       </c>
       <c r="J18" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24500</v>
+        <v>23900</v>
       </c>
       <c r="E20" s="3">
-        <v>-41000</v>
+        <v>-40000</v>
       </c>
       <c r="F20" s="3">
-        <v>-110000</v>
+        <v>-107400</v>
       </c>
       <c r="G20" s="3">
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="H20" s="3">
-        <v>-37200</v>
+        <v>-36300</v>
       </c>
       <c r="I20" s="3">
-        <v>-26600</v>
+        <v>-25900</v>
       </c>
       <c r="J20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>285400</v>
+        <v>278500</v>
       </c>
       <c r="E21" s="3">
-        <v>400600</v>
+        <v>391000</v>
       </c>
       <c r="F21" s="3">
-        <v>153300</v>
+        <v>149600</v>
       </c>
       <c r="G21" s="3">
-        <v>183200</v>
+        <v>178800</v>
       </c>
       <c r="H21" s="3">
-        <v>86900</v>
+        <v>84700</v>
       </c>
       <c r="I21" s="3">
-        <v>47900</v>
+        <v>46600</v>
       </c>
       <c r="J21" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29200</v>
+        <v>28500</v>
       </c>
       <c r="E22" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="F22" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="G22" s="3">
-        <v>16000</v>
+        <v>15700</v>
       </c>
       <c r="H22" s="3">
-        <v>20700</v>
+        <v>20200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>174700</v>
+        <v>170600</v>
       </c>
       <c r="E23" s="3">
-        <v>327600</v>
+        <v>319800</v>
       </c>
       <c r="F23" s="3">
-        <v>84900</v>
+        <v>82900</v>
       </c>
       <c r="G23" s="3">
-        <v>103500</v>
+        <v>101000</v>
       </c>
       <c r="H23" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I23" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J23" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32200</v>
+        <v>31500</v>
       </c>
       <c r="E24" s="3">
-        <v>47400</v>
+        <v>46300</v>
       </c>
       <c r="F24" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="3">
-        <v>-24400</v>
+        <v>-23800</v>
       </c>
       <c r="H24" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="I24" s="3">
-        <v>-22600</v>
+        <v>-22100</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>142500</v>
+        <v>139100</v>
       </c>
       <c r="E26" s="3">
-        <v>280200</v>
+        <v>273600</v>
       </c>
       <c r="F26" s="3">
-        <v>72600</v>
+        <v>70900</v>
       </c>
       <c r="G26" s="3">
-        <v>127800</v>
+        <v>124800</v>
       </c>
       <c r="H26" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="I26" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="J26" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>140800</v>
+        <v>137500</v>
       </c>
       <c r="E27" s="3">
-        <v>278000</v>
+        <v>271400</v>
       </c>
       <c r="F27" s="3">
-        <v>71400</v>
+        <v>69700</v>
       </c>
       <c r="G27" s="3">
-        <v>127000</v>
+        <v>124000</v>
       </c>
       <c r="H27" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="I27" s="3">
-        <v>32200</v>
+        <v>31400</v>
       </c>
       <c r="J27" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24500</v>
+        <v>-23900</v>
       </c>
       <c r="E32" s="3">
-        <v>41000</v>
+        <v>40000</v>
       </c>
       <c r="F32" s="3">
-        <v>110000</v>
+        <v>107400</v>
       </c>
       <c r="G32" s="3">
-        <v>-13500</v>
+        <v>-13200</v>
       </c>
       <c r="H32" s="3">
-        <v>37200</v>
+        <v>36300</v>
       </c>
       <c r="I32" s="3">
-        <v>26600</v>
+        <v>25900</v>
       </c>
       <c r="J32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>140800</v>
+        <v>137500</v>
       </c>
       <c r="E33" s="3">
-        <v>278000</v>
+        <v>271400</v>
       </c>
       <c r="F33" s="3">
-        <v>71400</v>
+        <v>69700</v>
       </c>
       <c r="G33" s="3">
-        <v>127000</v>
+        <v>124000</v>
       </c>
       <c r="H33" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="I33" s="3">
-        <v>31100</v>
+        <v>30300</v>
       </c>
       <c r="J33" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>140800</v>
+        <v>137500</v>
       </c>
       <c r="E35" s="3">
-        <v>278000</v>
+        <v>271400</v>
       </c>
       <c r="F35" s="3">
-        <v>71400</v>
+        <v>69700</v>
       </c>
       <c r="G35" s="3">
-        <v>127000</v>
+        <v>124000</v>
       </c>
       <c r="H35" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="I35" s="3">
-        <v>31100</v>
+        <v>30300</v>
       </c>
       <c r="J35" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>245700</v>
+        <v>239900</v>
       </c>
       <c r="E41" s="3">
-        <v>179900</v>
+        <v>175700</v>
       </c>
       <c r="F41" s="3">
-        <v>86400</v>
+        <v>84400</v>
       </c>
       <c r="G41" s="3">
-        <v>29700</v>
+        <v>29000</v>
       </c>
       <c r="H41" s="3">
-        <v>26200</v>
+        <v>25600</v>
       </c>
       <c r="I41" s="3">
-        <v>70700</v>
+        <v>69000</v>
       </c>
       <c r="J41" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1686,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>193200</v>
+        <v>188600</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45300</v>
+        <v>44300</v>
       </c>
       <c r="E43" s="3">
-        <v>63300</v>
+        <v>61800</v>
       </c>
       <c r="F43" s="3">
-        <v>47400</v>
+        <v>46300</v>
       </c>
       <c r="G43" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="H43" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="I43" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>42800</v>
+        <v>41800</v>
       </c>
       <c r="E44" s="3">
-        <v>36000</v>
+        <v>35100</v>
       </c>
       <c r="F44" s="3">
-        <v>35300</v>
+        <v>34400</v>
       </c>
       <c r="G44" s="3">
-        <v>26800</v>
+        <v>26200</v>
       </c>
       <c r="H44" s="3">
-        <v>20200</v>
+        <v>19800</v>
       </c>
       <c r="I44" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="J44" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15600</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="F45" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="G45" s="3">
-        <v>33500</v>
+        <v>32700</v>
       </c>
       <c r="H45" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="I45" s="3">
-        <v>48300</v>
+        <v>47200</v>
       </c>
       <c r="J45" s="3">
-        <v>42000</v>
+        <v>41000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>542600</v>
+        <v>529800</v>
       </c>
       <c r="E46" s="3">
-        <v>288600</v>
+        <v>281700</v>
       </c>
       <c r="F46" s="3">
-        <v>176400</v>
+        <v>172200</v>
       </c>
       <c r="G46" s="3">
-        <v>104500</v>
+        <v>102000</v>
       </c>
       <c r="H46" s="3">
-        <v>70500</v>
+        <v>68800</v>
       </c>
       <c r="I46" s="3">
-        <v>135400</v>
+        <v>132200</v>
       </c>
       <c r="J46" s="3">
-        <v>75200</v>
+        <v>73500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1066000</v>
+        <v>1040800</v>
       </c>
       <c r="E48" s="3">
-        <v>660200</v>
+        <v>644600</v>
       </c>
       <c r="F48" s="3">
-        <v>490500</v>
+        <v>478900</v>
       </c>
       <c r="G48" s="3">
-        <v>505200</v>
+        <v>493300</v>
       </c>
       <c r="H48" s="3">
-        <v>423600</v>
+        <v>413600</v>
       </c>
       <c r="I48" s="3">
-        <v>388100</v>
+        <v>378900</v>
       </c>
       <c r="J48" s="3">
-        <v>361600</v>
+        <v>353000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="3">
-        <v>24600</v>
+        <v>24000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34100</v>
+        <v>33300</v>
       </c>
       <c r="E52" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F52" s="3">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="G52" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="H52" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J52" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1642800</v>
+        <v>1603900</v>
       </c>
       <c r="E54" s="3">
-        <v>953700</v>
+        <v>931200</v>
       </c>
       <c r="F54" s="3">
-        <v>687300</v>
+        <v>671100</v>
       </c>
       <c r="G54" s="3">
-        <v>639700</v>
+        <v>624600</v>
       </c>
       <c r="H54" s="3">
-        <v>498400</v>
+        <v>486600</v>
       </c>
       <c r="I54" s="3">
-        <v>527300</v>
+        <v>514800</v>
       </c>
       <c r="J54" s="3">
-        <v>441100</v>
+        <v>430700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59400</v>
+        <v>58000</v>
       </c>
       <c r="E57" s="3">
-        <v>33200</v>
+        <v>32400</v>
       </c>
       <c r="F57" s="3">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="G57" s="3">
-        <v>30200</v>
+        <v>29500</v>
       </c>
       <c r="H57" s="3">
-        <v>26300</v>
+        <v>25700</v>
       </c>
       <c r="I57" s="3">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="J57" s="3">
-        <v>21100</v>
+        <v>20600</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="E58" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="F58" s="3">
-        <v>19300</v>
+        <v>18800</v>
       </c>
       <c r="G58" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="H58" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="I58" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="J58" s="3">
-        <v>149500</v>
+        <v>146000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88900</v>
+        <v>86800</v>
       </c>
       <c r="E59" s="3">
-        <v>123900</v>
+        <v>121000</v>
       </c>
       <c r="F59" s="3">
-        <v>87500</v>
+        <v>85500</v>
       </c>
       <c r="G59" s="3">
-        <v>50500</v>
+        <v>49300</v>
       </c>
       <c r="H59" s="3">
-        <v>42400</v>
+        <v>41400</v>
       </c>
       <c r="I59" s="3">
-        <v>50300</v>
+        <v>49100</v>
       </c>
       <c r="J59" s="3">
-        <v>83400</v>
+        <v>81500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>178500</v>
+        <v>174300</v>
       </c>
       <c r="E60" s="3">
-        <v>169600</v>
+        <v>165600</v>
       </c>
       <c r="F60" s="3">
-        <v>126800</v>
+        <v>123800</v>
       </c>
       <c r="G60" s="3">
-        <v>111300</v>
+        <v>108600</v>
       </c>
       <c r="H60" s="3">
-        <v>83300</v>
+        <v>81400</v>
       </c>
       <c r="I60" s="3">
-        <v>76500</v>
+        <v>74700</v>
       </c>
       <c r="J60" s="3">
-        <v>254100</v>
+        <v>248100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>562900</v>
+        <v>549600</v>
       </c>
       <c r="E61" s="3">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="F61" s="3">
-        <v>215600</v>
+        <v>210500</v>
       </c>
       <c r="G61" s="3">
-        <v>194800</v>
+        <v>190200</v>
       </c>
       <c r="H61" s="3">
-        <v>195800</v>
+        <v>191200</v>
       </c>
       <c r="I61" s="3">
-        <v>184700</v>
+        <v>180300</v>
       </c>
       <c r="J61" s="3">
-        <v>74600</v>
+        <v>72900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>151700</v>
+        <v>148100</v>
       </c>
       <c r="E62" s="3">
-        <v>158100</v>
+        <v>154300</v>
       </c>
       <c r="F62" s="3">
-        <v>48900</v>
+        <v>47800</v>
       </c>
       <c r="G62" s="3">
-        <v>58400</v>
+        <v>57100</v>
       </c>
       <c r="H62" s="3">
-        <v>75700</v>
+        <v>73900</v>
       </c>
       <c r="I62" s="3">
-        <v>86700</v>
+        <v>84600</v>
       </c>
       <c r="J62" s="3">
-        <v>78700</v>
+        <v>76800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>898000</v>
+        <v>876800</v>
       </c>
       <c r="E66" s="3">
-        <v>410300</v>
+        <v>400600</v>
       </c>
       <c r="F66" s="3">
-        <v>393200</v>
+        <v>383900</v>
       </c>
       <c r="G66" s="3">
-        <v>365700</v>
+        <v>357000</v>
       </c>
       <c r="H66" s="3">
-        <v>355200</v>
+        <v>346800</v>
       </c>
       <c r="I66" s="3">
-        <v>347500</v>
+        <v>339300</v>
       </c>
       <c r="J66" s="3">
-        <v>406900</v>
+        <v>397200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>631500</v>
+        <v>616600</v>
       </c>
       <c r="E72" s="3">
-        <v>490700</v>
+        <v>479100</v>
       </c>
       <c r="F72" s="3">
-        <v>119700</v>
+        <v>116800</v>
       </c>
       <c r="G72" s="3">
-        <v>107500</v>
+        <v>104900</v>
       </c>
       <c r="H72" s="3">
-        <v>-19900</v>
+        <v>-19500</v>
       </c>
       <c r="I72" s="3">
-        <v>19300</v>
+        <v>18800</v>
       </c>
       <c r="J72" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>744700</v>
+        <v>727100</v>
       </c>
       <c r="E76" s="3">
-        <v>543500</v>
+        <v>530600</v>
       </c>
       <c r="F76" s="3">
-        <v>294100</v>
+        <v>287100</v>
       </c>
       <c r="G76" s="3">
-        <v>274100</v>
+        <v>267600</v>
       </c>
       <c r="H76" s="3">
-        <v>143100</v>
+        <v>139800</v>
       </c>
       <c r="I76" s="3">
-        <v>179700</v>
+        <v>175500</v>
       </c>
       <c r="J76" s="3">
-        <v>34300</v>
+        <v>33500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>140800</v>
+        <v>137500</v>
       </c>
       <c r="E81" s="3">
-        <v>278000</v>
+        <v>271400</v>
       </c>
       <c r="F81" s="3">
-        <v>71400</v>
+        <v>69700</v>
       </c>
       <c r="G81" s="3">
-        <v>127000</v>
+        <v>124000</v>
       </c>
       <c r="H81" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="I81" s="3">
-        <v>31100</v>
+        <v>30300</v>
       </c>
       <c r="J81" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>81500</v>
+        <v>79600</v>
       </c>
       <c r="E83" s="3">
-        <v>65400</v>
+        <v>63800</v>
       </c>
       <c r="F83" s="3">
-        <v>54400</v>
+        <v>53100</v>
       </c>
       <c r="G83" s="3">
-        <v>63800</v>
+        <v>62300</v>
       </c>
       <c r="H83" s="3">
-        <v>62600</v>
+        <v>61200</v>
       </c>
       <c r="I83" s="3">
-        <v>45300</v>
+        <v>44200</v>
       </c>
       <c r="J83" s="3">
         <v>1100</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>198300</v>
+        <v>193600</v>
       </c>
       <c r="E89" s="3">
-        <v>504100</v>
+        <v>492200</v>
       </c>
       <c r="F89" s="3">
-        <v>225200</v>
+        <v>219800</v>
       </c>
       <c r="G89" s="3">
-        <v>176800</v>
+        <v>172600</v>
       </c>
       <c r="H89" s="3">
-        <v>114700</v>
+        <v>112000</v>
       </c>
       <c r="I89" s="3">
-        <v>29400</v>
+        <v>28700</v>
       </c>
       <c r="J89" s="3">
-        <v>-12100</v>
+        <v>-11800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-409000</v>
+        <v>-399400</v>
       </c>
       <c r="E91" s="3">
-        <v>-251400</v>
+        <v>-245500</v>
       </c>
       <c r="F91" s="3">
-        <v>-162900</v>
+        <v>-159000</v>
       </c>
       <c r="G91" s="3">
-        <v>-146900</v>
+        <v>-143500</v>
       </c>
       <c r="H91" s="3">
-        <v>-139900</v>
+        <v>-136600</v>
       </c>
       <c r="I91" s="3">
-        <v>-80500</v>
+        <v>-78600</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-588800</v>
+        <v>-574800</v>
       </c>
       <c r="E94" s="3">
-        <v>-248200</v>
+        <v>-242400</v>
       </c>
       <c r="F94" s="3">
-        <v>-161200</v>
+        <v>-157400</v>
       </c>
       <c r="G94" s="3">
-        <v>-147600</v>
+        <v>-144100</v>
       </c>
       <c r="H94" s="3">
-        <v>-139600</v>
+        <v>-136300</v>
       </c>
       <c r="I94" s="3">
-        <v>-86200</v>
+        <v>-84100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>452600</v>
+        <v>441900</v>
       </c>
       <c r="E100" s="3">
-        <v>-159600</v>
+        <v>-155800</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
-        <v>-24900</v>
+        <v>-24300</v>
       </c>
       <c r="H100" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="I100" s="3">
-        <v>100000</v>
+        <v>97700</v>
       </c>
       <c r="J100" s="3">
-        <v>37600</v>
+        <v>36700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E101" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="F101" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="G101" s="3">
         <v>-700</v>
       </c>
       <c r="H101" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="I101" s="3">
         <v>2100</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>65800</v>
+        <v>64200</v>
       </c>
       <c r="E102" s="3">
-        <v>93500</v>
+        <v>91300</v>
       </c>
       <c r="F102" s="3">
-        <v>56700</v>
+        <v>55400</v>
       </c>
       <c r="G102" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H102" s="3">
-        <v>-44500</v>
+        <v>-43500</v>
       </c>
       <c r="I102" s="3">
-        <v>45300</v>
+        <v>44300</v>
       </c>
       <c r="J102" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>575600</v>
+        <v>575900</v>
       </c>
       <c r="E8" s="3">
-        <v>661400</v>
+        <v>661700</v>
       </c>
       <c r="F8" s="3">
-        <v>437500</v>
+        <v>437700</v>
       </c>
       <c r="G8" s="3">
-        <v>384500</v>
+        <v>384700</v>
       </c>
       <c r="H8" s="3">
-        <v>314700</v>
+        <v>314900</v>
       </c>
       <c r="I8" s="3">
         <v>155900</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>322900</v>
+        <v>323100</v>
       </c>
       <c r="E9" s="3">
-        <v>230900</v>
+        <v>231000</v>
       </c>
       <c r="F9" s="3">
-        <v>183500</v>
+        <v>183600</v>
       </c>
       <c r="G9" s="3">
-        <v>226500</v>
+        <v>226600</v>
       </c>
       <c r="H9" s="3">
-        <v>203700</v>
+        <v>203800</v>
       </c>
       <c r="I9" s="3">
         <v>138400</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>252700</v>
+        <v>252800</v>
       </c>
       <c r="E10" s="3">
-        <v>430500</v>
+        <v>430700</v>
       </c>
       <c r="F10" s="3">
-        <v>254000</v>
+        <v>254100</v>
       </c>
       <c r="G10" s="3">
-        <v>158000</v>
+        <v>158100</v>
       </c>
       <c r="H10" s="3">
-        <v>111000</v>
+        <v>111100</v>
       </c>
       <c r="I10" s="3">
         <v>17500</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400400</v>
+        <v>400600</v>
       </c>
       <c r="E17" s="3">
-        <v>294000</v>
+        <v>294100</v>
       </c>
       <c r="F17" s="3">
-        <v>233500</v>
+        <v>233600</v>
       </c>
       <c r="G17" s="3">
-        <v>281000</v>
+        <v>281200</v>
       </c>
       <c r="H17" s="3">
-        <v>254600</v>
+        <v>254700</v>
       </c>
       <c r="I17" s="3">
         <v>127300</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>175200</v>
+        <v>175300</v>
       </c>
       <c r="E18" s="3">
-        <v>367400</v>
+        <v>367600</v>
       </c>
       <c r="F18" s="3">
-        <v>204000</v>
+        <v>204200</v>
       </c>
       <c r="G18" s="3">
-        <v>103500</v>
+        <v>103600</v>
       </c>
       <c r="H18" s="3">
         <v>60100</v>
@@ -1060,10 +1060,10 @@
         <v>23900</v>
       </c>
       <c r="E20" s="3">
-        <v>-40000</v>
+        <v>-40100</v>
       </c>
       <c r="F20" s="3">
-        <v>-107400</v>
+        <v>-107500</v>
       </c>
       <c r="G20" s="3">
         <v>13200</v>
@@ -1072,7 +1072,7 @@
         <v>-36300</v>
       </c>
       <c r="I20" s="3">
-        <v>-25900</v>
+        <v>-26000</v>
       </c>
       <c r="J20" s="3">
         <v>2700</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>278500</v>
+        <v>278900</v>
       </c>
       <c r="E21" s="3">
-        <v>391000</v>
+        <v>391400</v>
       </c>
       <c r="F21" s="3">
-        <v>149600</v>
+        <v>149800</v>
       </c>
       <c r="G21" s="3">
-        <v>178800</v>
+        <v>179100</v>
       </c>
       <c r="H21" s="3">
-        <v>84700</v>
+        <v>85000</v>
       </c>
       <c r="I21" s="3">
-        <v>46600</v>
+        <v>46800</v>
       </c>
       <c r="J21" s="3">
         <v>-3600</v>
@@ -1126,7 +1126,7 @@
         <v>28500</v>
       </c>
       <c r="E22" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F22" s="3">
         <v>13700</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>170600</v>
+        <v>170700</v>
       </c>
       <c r="E23" s="3">
-        <v>319800</v>
+        <v>320000</v>
       </c>
       <c r="F23" s="3">
-        <v>82900</v>
+        <v>83000</v>
       </c>
       <c r="G23" s="3">
-        <v>101000</v>
+        <v>101100</v>
       </c>
       <c r="H23" s="3">
         <v>3600</v>
@@ -1195,7 +1195,7 @@
         <v>46300</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="G24" s="3">
         <v>-23800</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>139100</v>
+        <v>139200</v>
       </c>
       <c r="E26" s="3">
-        <v>273600</v>
+        <v>273700</v>
       </c>
       <c r="F26" s="3">
         <v>70900</v>
       </c>
       <c r="G26" s="3">
-        <v>124800</v>
+        <v>124900</v>
       </c>
       <c r="H26" s="3">
         <v>-4000</v>
@@ -1291,13 +1291,13 @@
         <v>137500</v>
       </c>
       <c r="E27" s="3">
-        <v>271400</v>
+        <v>271600</v>
       </c>
       <c r="F27" s="3">
         <v>69700</v>
       </c>
       <c r="G27" s="3">
-        <v>124000</v>
+        <v>124100</v>
       </c>
       <c r="H27" s="3">
         <v>-4300</v>
@@ -1456,10 +1456,10 @@
         <v>-23900</v>
       </c>
       <c r="E32" s="3">
-        <v>40000</v>
+        <v>40100</v>
       </c>
       <c r="F32" s="3">
-        <v>107400</v>
+        <v>107500</v>
       </c>
       <c r="G32" s="3">
         <v>-13200</v>
@@ -1468,7 +1468,7 @@
         <v>36300</v>
       </c>
       <c r="I32" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="J32" s="3">
         <v>-2700</v>
@@ -1489,13 +1489,13 @@
         <v>137500</v>
       </c>
       <c r="E33" s="3">
-        <v>271400</v>
+        <v>271600</v>
       </c>
       <c r="F33" s="3">
         <v>69700</v>
       </c>
       <c r="G33" s="3">
-        <v>124000</v>
+        <v>124100</v>
       </c>
       <c r="H33" s="3">
         <v>-4300</v>
@@ -1555,13 +1555,13 @@
         <v>137500</v>
       </c>
       <c r="E35" s="3">
-        <v>271400</v>
+        <v>271600</v>
       </c>
       <c r="F35" s="3">
         <v>69700</v>
       </c>
       <c r="G35" s="3">
-        <v>124000</v>
+        <v>124100</v>
       </c>
       <c r="H35" s="3">
         <v>-4300</v>
@@ -1653,10 +1653,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>239900</v>
+        <v>240000</v>
       </c>
       <c r="E41" s="3">
-        <v>175700</v>
+        <v>175800</v>
       </c>
       <c r="F41" s="3">
         <v>84400</v>
@@ -1686,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>188600</v>
+        <v>188700</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1722,7 +1722,7 @@
         <v>44300</v>
       </c>
       <c r="E43" s="3">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="F43" s="3">
         <v>46300</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="E44" s="3">
+        <v>35700</v>
+      </c>
+      <c r="F44" s="3">
         <v>35100</v>
       </c>
-      <c r="F44" s="3">
-        <v>34400</v>
-      </c>
       <c r="G44" s="3">
-        <v>26200</v>
+        <v>27600</v>
       </c>
       <c r="H44" s="3">
-        <v>19800</v>
+        <v>20800</v>
       </c>
       <c r="I44" s="3">
-        <v>11400</v>
+        <v>13400</v>
       </c>
       <c r="J44" s="3">
-        <v>7000</v>
+        <v>10600</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="E45" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
+        <v>6400</v>
       </c>
       <c r="G45" s="3">
-        <v>32700</v>
+        <v>31300</v>
       </c>
       <c r="H45" s="3">
-        <v>11900</v>
+        <v>10900</v>
       </c>
       <c r="I45" s="3">
-        <v>47200</v>
+        <v>45300</v>
       </c>
       <c r="J45" s="3">
-        <v>41000</v>
+        <v>37500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>529800</v>
+        <v>530100</v>
       </c>
       <c r="E46" s="3">
-        <v>281700</v>
+        <v>281900</v>
       </c>
       <c r="F46" s="3">
-        <v>172200</v>
+        <v>172300</v>
       </c>
       <c r="G46" s="3">
-        <v>102000</v>
+        <v>102100</v>
       </c>
       <c r="H46" s="3">
         <v>68800</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1040800</v>
+        <v>1041300</v>
       </c>
       <c r="E48" s="3">
-        <v>644600</v>
+        <v>644900</v>
       </c>
       <c r="F48" s="3">
-        <v>478900</v>
+        <v>479100</v>
       </c>
       <c r="G48" s="3">
-        <v>493300</v>
+        <v>493500</v>
       </c>
       <c r="H48" s="3">
-        <v>413600</v>
+        <v>413800</v>
       </c>
       <c r="I48" s="3">
-        <v>378900</v>
+        <v>379100</v>
       </c>
       <c r="J48" s="3">
-        <v>353000</v>
+        <v>353200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1603900</v>
+        <v>1604700</v>
       </c>
       <c r="E54" s="3">
-        <v>931200</v>
+        <v>931700</v>
       </c>
       <c r="F54" s="3">
-        <v>671100</v>
+        <v>671400</v>
       </c>
       <c r="G54" s="3">
-        <v>624600</v>
+        <v>624900</v>
       </c>
       <c r="H54" s="3">
-        <v>486600</v>
+        <v>486800</v>
       </c>
       <c r="I54" s="3">
-        <v>514800</v>
+        <v>515100</v>
       </c>
       <c r="J54" s="3">
-        <v>430700</v>
+        <v>430900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2151,7 +2151,7 @@
         <v>32400</v>
       </c>
       <c r="F57" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="G57" s="3">
         <v>29500</v>
@@ -2196,7 +2196,7 @@
         <v>7600</v>
       </c>
       <c r="J58" s="3">
-        <v>146000</v>
+        <v>146100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2226,7 +2226,7 @@
         <v>41400</v>
       </c>
       <c r="I59" s="3">
-        <v>49100</v>
+        <v>49200</v>
       </c>
       <c r="J59" s="3">
         <v>81500</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>174300</v>
+        <v>174400</v>
       </c>
       <c r="E60" s="3">
-        <v>165600</v>
+        <v>165700</v>
       </c>
       <c r="F60" s="3">
-        <v>123800</v>
+        <v>123900</v>
       </c>
       <c r="G60" s="3">
-        <v>108600</v>
+        <v>108700</v>
       </c>
       <c r="H60" s="3">
         <v>81400</v>
@@ -2262,7 +2262,7 @@
         <v>74700</v>
       </c>
       <c r="J60" s="3">
-        <v>248100</v>
+        <v>248200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>549600</v>
+        <v>549900</v>
       </c>
       <c r="E61" s="3">
         <v>77400</v>
       </c>
       <c r="F61" s="3">
-        <v>210500</v>
+        <v>210600</v>
       </c>
       <c r="G61" s="3">
-        <v>190200</v>
+        <v>190300</v>
       </c>
       <c r="H61" s="3">
-        <v>191200</v>
+        <v>191300</v>
       </c>
       <c r="I61" s="3">
-        <v>180300</v>
+        <v>180400</v>
       </c>
       <c r="J61" s="3">
         <v>72900</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>148100</v>
+        <v>148200</v>
       </c>
       <c r="E62" s="3">
-        <v>154300</v>
+        <v>154400</v>
       </c>
       <c r="F62" s="3">
         <v>47800</v>
@@ -2325,10 +2325,10 @@
         <v>73900</v>
       </c>
       <c r="I62" s="3">
-        <v>84600</v>
+        <v>84700</v>
       </c>
       <c r="J62" s="3">
-        <v>76800</v>
+        <v>76900</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>876800</v>
+        <v>877300</v>
       </c>
       <c r="E66" s="3">
-        <v>400600</v>
+        <v>400800</v>
       </c>
       <c r="F66" s="3">
-        <v>383900</v>
+        <v>384100</v>
       </c>
       <c r="G66" s="3">
-        <v>357000</v>
+        <v>357200</v>
       </c>
       <c r="H66" s="3">
-        <v>346800</v>
+        <v>347000</v>
       </c>
       <c r="I66" s="3">
-        <v>339300</v>
+        <v>339500</v>
       </c>
       <c r="J66" s="3">
-        <v>397200</v>
+        <v>397500</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>616600</v>
+        <v>616900</v>
       </c>
       <c r="E72" s="3">
-        <v>479100</v>
+        <v>479400</v>
       </c>
       <c r="F72" s="3">
-        <v>116800</v>
+        <v>116900</v>
       </c>
       <c r="G72" s="3">
-        <v>104900</v>
+        <v>105000</v>
       </c>
       <c r="H72" s="3">
         <v>-19500</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>727100</v>
+        <v>727500</v>
       </c>
       <c r="E76" s="3">
-        <v>530600</v>
+        <v>530900</v>
       </c>
       <c r="F76" s="3">
-        <v>287100</v>
+        <v>287300</v>
       </c>
       <c r="G76" s="3">
-        <v>267600</v>
+        <v>267700</v>
       </c>
       <c r="H76" s="3">
         <v>139800</v>
       </c>
       <c r="I76" s="3">
-        <v>175500</v>
+        <v>175600</v>
       </c>
       <c r="J76" s="3">
         <v>33500</v>
@@ -2861,13 +2861,13 @@
         <v>137500</v>
       </c>
       <c r="E81" s="3">
-        <v>271400</v>
+        <v>271600</v>
       </c>
       <c r="F81" s="3">
         <v>69700</v>
       </c>
       <c r="G81" s="3">
-        <v>124000</v>
+        <v>124100</v>
       </c>
       <c r="H81" s="3">
         <v>-4300</v>
@@ -2909,13 +2909,13 @@
         <v>79600</v>
       </c>
       <c r="E83" s="3">
-        <v>63800</v>
+        <v>63900</v>
       </c>
       <c r="F83" s="3">
         <v>53100</v>
       </c>
       <c r="G83" s="3">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="H83" s="3">
         <v>61200</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>193600</v>
+        <v>193700</v>
       </c>
       <c r="E89" s="3">
-        <v>492200</v>
+        <v>492500</v>
       </c>
       <c r="F89" s="3">
-        <v>219800</v>
+        <v>219900</v>
       </c>
       <c r="G89" s="3">
-        <v>172600</v>
+        <v>172700</v>
       </c>
       <c r="H89" s="3">
         <v>112000</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-399400</v>
+        <v>-399600</v>
       </c>
       <c r="E91" s="3">
-        <v>-245500</v>
+        <v>-245600</v>
       </c>
       <c r="F91" s="3">
-        <v>-159000</v>
+        <v>-159100</v>
       </c>
       <c r="G91" s="3">
         <v>-143500</v>
       </c>
       <c r="H91" s="3">
-        <v>-136600</v>
+        <v>-136700</v>
       </c>
       <c r="I91" s="3">
         <v>-78600</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-574800</v>
+        <v>-575100</v>
       </c>
       <c r="E94" s="3">
-        <v>-242400</v>
+        <v>-242500</v>
       </c>
       <c r="F94" s="3">
         <v>-157400</v>
       </c>
       <c r="G94" s="3">
-        <v>-144100</v>
+        <v>-144200</v>
       </c>
       <c r="H94" s="3">
-        <v>-136300</v>
+        <v>-136400</v>
       </c>
       <c r="I94" s="3">
-        <v>-84100</v>
+        <v>-84200</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3431,10 +3431,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>441900</v>
+        <v>442100</v>
       </c>
       <c r="E100" s="3">
-        <v>-155800</v>
+        <v>-155900</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
@@ -3497,7 +3497,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64200</v>
+        <v>64300</v>
       </c>
       <c r="E102" s="3">
         <v>91300</v>

--- a/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERO_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>575900</v>
+        <v>586500</v>
       </c>
       <c r="E8" s="3">
-        <v>661700</v>
+        <v>673900</v>
       </c>
       <c r="F8" s="3">
-        <v>437700</v>
+        <v>445800</v>
       </c>
       <c r="G8" s="3">
-        <v>384700</v>
+        <v>391800</v>
       </c>
       <c r="H8" s="3">
-        <v>314900</v>
+        <v>320600</v>
       </c>
       <c r="I8" s="3">
-        <v>155900</v>
+        <v>158800</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>323100</v>
+        <v>329000</v>
       </c>
       <c r="E9" s="3">
-        <v>231000</v>
+        <v>235300</v>
       </c>
       <c r="F9" s="3">
-        <v>183600</v>
+        <v>187000</v>
       </c>
       <c r="G9" s="3">
-        <v>226600</v>
+        <v>230800</v>
       </c>
       <c r="H9" s="3">
-        <v>203800</v>
+        <v>207500</v>
       </c>
       <c r="I9" s="3">
-        <v>138400</v>
+        <v>141000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>252800</v>
+        <v>257500</v>
       </c>
       <c r="E10" s="3">
-        <v>430700</v>
+        <v>438600</v>
       </c>
       <c r="F10" s="3">
-        <v>254100</v>
+        <v>258800</v>
       </c>
       <c r="G10" s="3">
-        <v>158100</v>
+        <v>161000</v>
       </c>
       <c r="H10" s="3">
-        <v>111100</v>
+        <v>113100</v>
       </c>
       <c r="I10" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H14" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I14" s="3">
-        <v>-38800</v>
+        <v>-39500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400600</v>
+        <v>408000</v>
       </c>
       <c r="E17" s="3">
-        <v>294100</v>
+        <v>299500</v>
       </c>
       <c r="F17" s="3">
-        <v>233600</v>
+        <v>237900</v>
       </c>
       <c r="G17" s="3">
-        <v>281200</v>
+        <v>286300</v>
       </c>
       <c r="H17" s="3">
-        <v>254700</v>
+        <v>259400</v>
       </c>
       <c r="I17" s="3">
-        <v>127300</v>
+        <v>129700</v>
       </c>
       <c r="J17" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>175300</v>
+        <v>178500</v>
       </c>
       <c r="E18" s="3">
-        <v>367600</v>
+        <v>374400</v>
       </c>
       <c r="F18" s="3">
-        <v>204200</v>
+        <v>207900</v>
       </c>
       <c r="G18" s="3">
-        <v>103600</v>
+        <v>105500</v>
       </c>
       <c r="H18" s="3">
-        <v>60100</v>
+        <v>61200</v>
       </c>
       <c r="I18" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="J18" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="E20" s="3">
-        <v>-40100</v>
+        <v>-40800</v>
       </c>
       <c r="F20" s="3">
-        <v>-107500</v>
+        <v>-109500</v>
       </c>
       <c r="G20" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="H20" s="3">
-        <v>-36300</v>
+        <v>-37000</v>
       </c>
       <c r="I20" s="3">
-        <v>-26000</v>
+        <v>-26400</v>
       </c>
       <c r="J20" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>278900</v>
+        <v>283600</v>
       </c>
       <c r="E21" s="3">
-        <v>391400</v>
+        <v>398300</v>
       </c>
       <c r="F21" s="3">
-        <v>149800</v>
+        <v>152300</v>
       </c>
       <c r="G21" s="3">
-        <v>179100</v>
+        <v>182000</v>
       </c>
       <c r="H21" s="3">
-        <v>85000</v>
+        <v>86200</v>
       </c>
       <c r="I21" s="3">
-        <v>46800</v>
+        <v>47400</v>
       </c>
       <c r="J21" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="E22" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F22" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="G22" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="H22" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>170700</v>
+        <v>173800</v>
       </c>
       <c r="E23" s="3">
-        <v>320000</v>
+        <v>325900</v>
       </c>
       <c r="F23" s="3">
-        <v>83000</v>
+        <v>84500</v>
       </c>
       <c r="G23" s="3">
-        <v>101100</v>
+        <v>102900</v>
       </c>
       <c r="H23" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I23" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J23" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31500</v>
+        <v>32100</v>
       </c>
       <c r="E24" s="3">
-        <v>46300</v>
+        <v>47200</v>
       </c>
       <c r="F24" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="G24" s="3">
-        <v>-23800</v>
+        <v>-24200</v>
       </c>
       <c r="H24" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="I24" s="3">
-        <v>-22100</v>
+        <v>-22500</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>139200</v>
+        <v>141800</v>
       </c>
       <c r="E26" s="3">
-        <v>273700</v>
+        <v>278700</v>
       </c>
       <c r="F26" s="3">
-        <v>70900</v>
+        <v>72200</v>
       </c>
       <c r="G26" s="3">
-        <v>124900</v>
+        <v>127200</v>
       </c>
       <c r="H26" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I26" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="J26" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>137500</v>
+        <v>140100</v>
       </c>
       <c r="E27" s="3">
-        <v>271600</v>
+        <v>276500</v>
       </c>
       <c r="F27" s="3">
-        <v>69700</v>
+        <v>71000</v>
       </c>
       <c r="G27" s="3">
-        <v>124100</v>
+        <v>126400</v>
       </c>
       <c r="H27" s="3">
         <v>-4300</v>
       </c>
       <c r="I27" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="J27" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23900</v>
+        <v>-24400</v>
       </c>
       <c r="E32" s="3">
-        <v>40100</v>
+        <v>40800</v>
       </c>
       <c r="F32" s="3">
-        <v>107500</v>
+        <v>109500</v>
       </c>
       <c r="G32" s="3">
-        <v>-13200</v>
+        <v>-13400</v>
       </c>
       <c r="H32" s="3">
-        <v>36300</v>
+        <v>37000</v>
       </c>
       <c r="I32" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="J32" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>137500</v>
+        <v>140100</v>
       </c>
       <c r="E33" s="3">
-        <v>271600</v>
+        <v>276500</v>
       </c>
       <c r="F33" s="3">
-        <v>69700</v>
+        <v>71000</v>
       </c>
       <c r="G33" s="3">
-        <v>124100</v>
+        <v>126400</v>
       </c>
       <c r="H33" s="3">
         <v>-4300</v>
       </c>
       <c r="I33" s="3">
-        <v>30300</v>
+        <v>30900</v>
       </c>
       <c r="J33" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>137500</v>
+        <v>140100</v>
       </c>
       <c r="E35" s="3">
-        <v>271600</v>
+        <v>276500</v>
       </c>
       <c r="F35" s="3">
-        <v>69700</v>
+        <v>71000</v>
       </c>
       <c r="G35" s="3">
-        <v>124100</v>
+        <v>126400</v>
       </c>
       <c r="H35" s="3">
         <v>-4300</v>
       </c>
       <c r="I35" s="3">
-        <v>30300</v>
+        <v>30900</v>
       </c>
       <c r="J35" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>240000</v>
+        <v>244400</v>
       </c>
       <c r="E41" s="3">
-        <v>175800</v>
+        <v>179000</v>
       </c>
       <c r="F41" s="3">
-        <v>84400</v>
+        <v>86000</v>
       </c>
       <c r="G41" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="H41" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="I41" s="3">
-        <v>69000</v>
+        <v>70300</v>
       </c>
       <c r="J41" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1686,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>188700</v>
+        <v>192200</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44300</v>
+        <v>45100</v>
       </c>
       <c r="E43" s="3">
-        <v>61900</v>
+        <v>63000</v>
       </c>
       <c r="F43" s="3">
-        <v>46300</v>
+        <v>47200</v>
       </c>
       <c r="G43" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="H43" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="I43" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>42800</v>
+        <v>43600</v>
       </c>
       <c r="E44" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="F44" s="3">
-        <v>35100</v>
+        <v>35800</v>
       </c>
       <c r="G44" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="H44" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="I44" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="J44" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="E45" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="F45" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G45" s="3">
-        <v>31300</v>
+        <v>31800</v>
       </c>
       <c r="H45" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="I45" s="3">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="J45" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>530100</v>
+        <v>539800</v>
       </c>
       <c r="E46" s="3">
-        <v>281900</v>
+        <v>287000</v>
       </c>
       <c r="F46" s="3">
-        <v>172300</v>
+        <v>175400</v>
       </c>
       <c r="G46" s="3">
-        <v>102100</v>
+        <v>103900</v>
       </c>
       <c r="H46" s="3">
-        <v>68800</v>
+        <v>70100</v>
       </c>
       <c r="I46" s="3">
-        <v>132200</v>
+        <v>134700</v>
       </c>
       <c r="J46" s="3">
-        <v>73500</v>
+        <v>74800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1041300</v>
+        <v>1060500</v>
       </c>
       <c r="E48" s="3">
-        <v>644900</v>
+        <v>656800</v>
       </c>
       <c r="F48" s="3">
-        <v>479100</v>
+        <v>487900</v>
       </c>
       <c r="G48" s="3">
-        <v>493500</v>
+        <v>502600</v>
       </c>
       <c r="H48" s="3">
-        <v>413800</v>
+        <v>421400</v>
       </c>
       <c r="I48" s="3">
-        <v>379100</v>
+        <v>386000</v>
       </c>
       <c r="J48" s="3">
-        <v>353200</v>
+        <v>359700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33300</v>
+        <v>34000</v>
       </c>
       <c r="E52" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F52" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="G52" s="3">
-        <v>29300</v>
+        <v>29900</v>
       </c>
       <c r="H52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I52" s="3">
         <v>3800</v>
       </c>
       <c r="J52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1604700</v>
+        <v>1634200</v>
       </c>
       <c r="E54" s="3">
-        <v>931700</v>
+        <v>948800</v>
       </c>
       <c r="F54" s="3">
-        <v>671400</v>
+        <v>683800</v>
       </c>
       <c r="G54" s="3">
-        <v>624900</v>
+        <v>636400</v>
       </c>
       <c r="H54" s="3">
-        <v>486800</v>
+        <v>495800</v>
       </c>
       <c r="I54" s="3">
-        <v>515100</v>
+        <v>524500</v>
       </c>
       <c r="J54" s="3">
-        <v>430900</v>
+        <v>438800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>58000</v>
+        <v>59100</v>
       </c>
       <c r="E57" s="3">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="F57" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="G57" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="H57" s="3">
-        <v>25700</v>
+        <v>26100</v>
       </c>
       <c r="I57" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="J57" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29600</v>
+        <v>30200</v>
       </c>
       <c r="E58" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="F58" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="G58" s="3">
-        <v>29900</v>
+        <v>30500</v>
       </c>
       <c r="H58" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="I58" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="J58" s="3">
-        <v>146100</v>
+        <v>148700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86800</v>
+        <v>88400</v>
       </c>
       <c r="E59" s="3">
-        <v>121000</v>
+        <v>123200</v>
       </c>
       <c r="F59" s="3">
-        <v>85500</v>
+        <v>87100</v>
       </c>
       <c r="G59" s="3">
-        <v>49300</v>
+        <v>50200</v>
       </c>
       <c r="H59" s="3">
-        <v>41400</v>
+        <v>42200</v>
       </c>
       <c r="I59" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="J59" s="3">
-        <v>81500</v>
+        <v>83000</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>174400</v>
+        <v>177600</v>
       </c>
       <c r="E60" s="3">
-        <v>165700</v>
+        <v>168700</v>
       </c>
       <c r="F60" s="3">
-        <v>123900</v>
+        <v>126200</v>
       </c>
       <c r="G60" s="3">
-        <v>108700</v>
+        <v>110700</v>
       </c>
       <c r="H60" s="3">
-        <v>81400</v>
+        <v>82900</v>
       </c>
       <c r="I60" s="3">
-        <v>74700</v>
+        <v>76100</v>
       </c>
       <c r="J60" s="3">
-        <v>248200</v>
+        <v>252800</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>549900</v>
+        <v>560000</v>
       </c>
       <c r="E61" s="3">
-        <v>77400</v>
+        <v>78800</v>
       </c>
       <c r="F61" s="3">
-        <v>210600</v>
+        <v>214500</v>
       </c>
       <c r="G61" s="3">
-        <v>190300</v>
+        <v>193800</v>
       </c>
       <c r="H61" s="3">
-        <v>191300</v>
+        <v>194800</v>
       </c>
       <c r="I61" s="3">
-        <v>180400</v>
+        <v>183700</v>
       </c>
       <c r="J61" s="3">
-        <v>72900</v>
+        <v>74300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>148200</v>
+        <v>150900</v>
       </c>
       <c r="E62" s="3">
-        <v>154400</v>
+        <v>157200</v>
       </c>
       <c r="F62" s="3">
-        <v>47800</v>
+        <v>48700</v>
       </c>
       <c r="G62" s="3">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="H62" s="3">
-        <v>73900</v>
+        <v>75300</v>
       </c>
       <c r="I62" s="3">
-        <v>84700</v>
+        <v>86200</v>
       </c>
       <c r="J62" s="3">
-        <v>76900</v>
+        <v>78300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>877300</v>
+        <v>893400</v>
       </c>
       <c r="E66" s="3">
-        <v>400800</v>
+        <v>408100</v>
       </c>
       <c r="F66" s="3">
-        <v>384100</v>
+        <v>391200</v>
       </c>
       <c r="G66" s="3">
-        <v>357200</v>
+        <v>363800</v>
       </c>
       <c r="H66" s="3">
-        <v>347000</v>
+        <v>353400</v>
       </c>
       <c r="I66" s="3">
-        <v>339500</v>
+        <v>345700</v>
       </c>
       <c r="J66" s="3">
-        <v>397500</v>
+        <v>404800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>616900</v>
+        <v>628200</v>
       </c>
       <c r="E72" s="3">
-        <v>479400</v>
+        <v>488200</v>
       </c>
       <c r="F72" s="3">
-        <v>116900</v>
+        <v>119100</v>
       </c>
       <c r="G72" s="3">
-        <v>105000</v>
+        <v>106900</v>
       </c>
       <c r="H72" s="3">
-        <v>-19500</v>
+        <v>-19800</v>
       </c>
       <c r="I72" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="J72" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>727500</v>
+        <v>740800</v>
       </c>
       <c r="E76" s="3">
-        <v>530900</v>
+        <v>540600</v>
       </c>
       <c r="F76" s="3">
-        <v>287300</v>
+        <v>292600</v>
       </c>
       <c r="G76" s="3">
-        <v>267700</v>
+        <v>272700</v>
       </c>
       <c r="H76" s="3">
-        <v>139800</v>
+        <v>142400</v>
       </c>
       <c r="I76" s="3">
-        <v>175600</v>
+        <v>178800</v>
       </c>
       <c r="J76" s="3">
-        <v>33500</v>
+        <v>34100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>137500</v>
+        <v>140100</v>
       </c>
       <c r="E81" s="3">
-        <v>271600</v>
+        <v>276500</v>
       </c>
       <c r="F81" s="3">
-        <v>69700</v>
+        <v>71000</v>
       </c>
       <c r="G81" s="3">
-        <v>124100</v>
+        <v>126400</v>
       </c>
       <c r="H81" s="3">
         <v>-4300</v>
       </c>
       <c r="I81" s="3">
-        <v>30300</v>
+        <v>30900</v>
       </c>
       <c r="J81" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>79600</v>
+        <v>81100</v>
       </c>
       <c r="E83" s="3">
-        <v>63900</v>
+        <v>65000</v>
       </c>
       <c r="F83" s="3">
-        <v>53100</v>
+        <v>54100</v>
       </c>
       <c r="G83" s="3">
-        <v>62400</v>
+        <v>63500</v>
       </c>
       <c r="H83" s="3">
-        <v>61200</v>
+        <v>62300</v>
       </c>
       <c r="I83" s="3">
-        <v>44200</v>
+        <v>45000</v>
       </c>
       <c r="J83" s="3">
         <v>1100</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>193700</v>
+        <v>197200</v>
       </c>
       <c r="E89" s="3">
-        <v>492500</v>
+        <v>501500</v>
       </c>
       <c r="F89" s="3">
-        <v>219900</v>
+        <v>224000</v>
       </c>
       <c r="G89" s="3">
-        <v>172700</v>
+        <v>175800</v>
       </c>
       <c r="H89" s="3">
-        <v>112000</v>
+        <v>114100</v>
       </c>
       <c r="I89" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="J89" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-399600</v>
+        <v>-406900</v>
       </c>
       <c r="E91" s="3">
-        <v>-245600</v>
+        <v>-250100</v>
       </c>
       <c r="F91" s="3">
-        <v>-159100</v>
+        <v>-162000</v>
       </c>
       <c r="G91" s="3">
-        <v>-143500</v>
+        <v>-146200</v>
       </c>
       <c r="H91" s="3">
-        <v>-136700</v>
+        <v>-139200</v>
       </c>
       <c r="I91" s="3">
-        <v>-78600</v>
+        <v>-80000</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-575100</v>
+        <v>-585700</v>
       </c>
       <c r="E94" s="3">
-        <v>-242500</v>
+        <v>-246900</v>
       </c>
       <c r="F94" s="3">
-        <v>-157400</v>
+        <v>-160300</v>
       </c>
       <c r="G94" s="3">
-        <v>-144200</v>
+        <v>-146800</v>
       </c>
       <c r="H94" s="3">
-        <v>-136400</v>
+        <v>-138900</v>
       </c>
       <c r="I94" s="3">
-        <v>-84200</v>
+        <v>-85700</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>442100</v>
+        <v>450200</v>
       </c>
       <c r="E100" s="3">
-        <v>-155900</v>
+        <v>-158800</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
-        <v>-24300</v>
+        <v>-24800</v>
       </c>
       <c r="H100" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="I100" s="3">
-        <v>97700</v>
+        <v>99500</v>
       </c>
       <c r="J100" s="3">
-        <v>36700</v>
+        <v>37400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F101" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="G101" s="3">
         <v>-700</v>
       </c>
       <c r="H101" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="I101" s="3">
         <v>2100</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64300</v>
+        <v>65400</v>
       </c>
       <c r="E102" s="3">
-        <v>91300</v>
+        <v>93000</v>
       </c>
       <c r="F102" s="3">
-        <v>55400</v>
+        <v>56400</v>
       </c>
       <c r="G102" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H102" s="3">
-        <v>-43500</v>
+        <v>-44300</v>
       </c>
       <c r="I102" s="3">
-        <v>44300</v>
+        <v>45100</v>
       </c>
       <c r="J102" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
